--- a/sku-maps/csv/xls/RHEL Data Breakdown.xlsx
+++ b/sku-maps/csv/xls/RHEL Data Breakdown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkelly\github\sku-calc\sku-maps\csv\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DE33DB80-A5FB-431D-A153-0C25273C07B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855DA6DA-8796-4C65-B7C3-03EFB38063E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" xr2:uid="{EEEE2005-B44C-4558-9957-76DB6E9A69D3}"/>
+    <workbookView minimized="1" xWindow="930" yWindow="1380" windowWidth="14265" windowHeight="15510" xr2:uid="{EEEE2005-B44C-4558-9957-76DB6E9A69D3}"/>
   </bookViews>
   <sheets>
     <sheet name="RHEL Data Breakdown -test" sheetId="1" r:id="rId1"/>
@@ -1995,7 +1995,7 @@
   <dimension ref="A1:AM1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,15 +2211,15 @@
         <v>0</v>
       </c>
       <c r="P2" s="2" t="b">
-        <f t="shared" ref="P2:P33" si="2">ISNUMBER(SEARCH("Premium", B2))</f>
+        <f>ISNUMBER(SEARCH("Premium", B2))</f>
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="b">
-        <f t="shared" ref="Q2:Q33" si="3">ISNUMBER(SEARCH("Standard", B2))</f>
+        <f>ISNUMBER(SEARCH("Standard", B2))</f>
         <v>0</v>
       </c>
       <c r="R2" s="2" t="b">
-        <f t="shared" ref="R2:R33" si="4">ISNUMBER(SEARCH("Self-support", B2))</f>
+        <f t="shared" ref="R2:R33" si="2">ISNUMBER(SEARCH("Self-support", B2))</f>
         <v>0</v>
       </c>
       <c r="S2" s="2" t="str">
@@ -2231,15 +2231,15 @@
         <v>0</v>
       </c>
       <c r="U2" s="2" t="b">
-        <f t="shared" ref="U2:U33" si="5">ISNUMBER(SEARCH("Extended Update support", B2))</f>
+        <f t="shared" ref="U2:U33" si="3">ISNUMBER(SEARCH("Extended Update support", B2))</f>
         <v>1</v>
       </c>
       <c r="V2" s="2" t="b">
-        <f t="shared" ref="V2:V33" si="6">ISNUMBER(SEARCH("extended life cycle support", B2))</f>
+        <f t="shared" ref="V2:V33" si="4">ISNUMBER(SEARCH("extended life cycle support", B2))</f>
         <v>0</v>
       </c>
       <c r="W2" s="2" t="b">
-        <f t="shared" ref="W2:W33" si="7">ISNUMBER(SEARCH("high availability", B2))</f>
+        <f t="shared" ref="W2:W33" si="5">ISNUMBER(SEARCH("high availability", B2))</f>
         <v>0</v>
       </c>
       <c r="X2" s="2" t="b">
@@ -2292,43 +2292,43 @@
         <v>35</v>
       </c>
       <c r="C3" s="2" t="b">
-        <f t="shared" ref="C3:C66" si="8">IF(OR(D3=TRUE,E3=TRUE,F3=TRUE),FALSE,TRUE)</f>
+        <f t="shared" ref="C3:C66" si="6">IF(OR(D3=TRUE,E3=TRUE,F3=TRUE),FALSE,TRUE)</f>
         <v>1</v>
       </c>
       <c r="D3" s="2" t="b">
-        <f t="shared" ref="D3:D66" si="9">ISNUMBER(SEARCH("IBM POWER", B3))</f>
+        <f t="shared" ref="D3:D66" si="7">ISNUMBER(SEARCH("IBM POWER", B3))</f>
         <v>0</v>
       </c>
       <c r="E3" s="2" t="b">
-        <f t="shared" ref="E3:E66" si="10">ISNUMBER(SEARCH("ARM", B3))</f>
+        <f t="shared" ref="E3:E66" si="8">ISNUMBER(SEARCH("ARM", B3))</f>
         <v>0</v>
       </c>
       <c r="F3" s="2" t="b">
-        <f t="shared" ref="F3:F66" si="11">ISNUMBER(SEARCH("zSystems", B3))</f>
+        <f t="shared" ref="F3:F66" si="9">ISNUMBER(SEARCH("zSystems", B3))</f>
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <f t="shared" ref="G3:G66" si="12">ISNUMBER( SEARCH("physical",AL3))</f>
+        <f t="shared" ref="G3:G66" si="10">ISNUMBER( SEARCH("physical",AL3))</f>
         <v>1</v>
       </c>
       <c r="H3" t="b">
-        <f t="shared" ref="H3:H66" si="13">OR(ISNUMBER(SEARCH("1", AK3)), ISNUMBER(SEARCH("Unlimited", AK3)), ISNUMBER(SEARCH("Virtual", B3)),ISNUMBER(SEARCH("LPAR", B3)))</f>
+        <f t="shared" ref="H3:H66" si="11">OR(ISNUMBER(SEARCH("1", AK3)), ISNUMBER(SEARCH("Unlimited", AK3)), ISNUMBER(SEARCH("Virtual", B3)),ISNUMBER(SEARCH("LPAR", B3)))</f>
         <v>1</v>
       </c>
       <c r="I3" s="2" t="b">
-        <f t="shared" ref="I3:I33" si="14">ISNUMBER( SEARCH("virtual datacenter",B3))</f>
+        <f t="shared" ref="I3:I33" si="12">ISNUMBER( SEARCH("virtual datacenter",B3))</f>
         <v>0</v>
       </c>
       <c r="J3" s="2" t="b">
-        <f t="shared" ref="J3:J66" si="15">IF(OR(K3=TRUE,L3=TRUE),FALSE, TRUE)</f>
+        <f t="shared" ref="J3:J66" si="13">IF(OR(K3=TRUE,L3=TRUE),FALSE, TRUE)</f>
         <v>1</v>
       </c>
       <c r="K3" s="2" t="b">
-        <f t="shared" ref="K3:K66" si="16">ISNUMBER( SEARCH("workstation",B3))</f>
+        <f t="shared" ref="K3:K66" si="14">ISNUMBER( SEARCH("workstation",B3))</f>
         <v>0</v>
       </c>
       <c r="L3" s="2" t="b">
-        <f t="shared" ref="L3:L66" si="17">ISNUMBER( SEARCH("hpc",B3))</f>
+        <f t="shared" ref="L3:L66" si="15">ISNUMBER( SEARCH("hpc",B3))</f>
         <v>0</v>
       </c>
       <c r="M3" s="2" t="b">
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="2" t="b">
-        <f t="shared" ref="N3:N66" si="18">ISNUMBER( SEARCH("SAP Applications",B3))</f>
+        <f t="shared" ref="N3:N66" si="16">ISNUMBER( SEARCH("SAP Applications",B3))</f>
         <v>0</v>
       </c>
       <c r="O3" s="2" t="b">
@@ -2344,15 +2344,15 @@
         <v>0</v>
       </c>
       <c r="P3" s="2" t="b">
+        <f t="shared" ref="P2:P33" si="17">ISNUMBER(SEARCH("Premium", B3))</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="b">
+        <f t="shared" ref="Q2:Q33" si="18">ISNUMBER(SEARCH("Standard", B3))</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S3" s="2" t="str">
@@ -2364,23 +2364,23 @@
         <v>0</v>
       </c>
       <c r="U3" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V3" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V3" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W3" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X3" s="2" t="b">
-        <f t="shared" ref="X2:X33" si="21">ISNUMBER(SEARCH("disaster recovery", B3))</f>
+        <f t="shared" ref="X3:X33" si="21">ISNUMBER(SEARCH("disaster recovery", B3))</f>
         <v>0</v>
       </c>
       <c r="Y3" s="2" t="b">
-        <f t="shared" ref="Y2:Y33" si="22">OR(ISNUMBER(SEARCH("edge", B3)), ISNUMBER(SEARCH("gateway", B3)), ISNUMBER(SEARCH("endpoint", B3)))</f>
+        <f t="shared" ref="Y3:Y33" si="22">OR(ISNUMBER(SEARCH("edge", B3)), ISNUMBER(SEARCH("gateway", B3)), ISNUMBER(SEARCH("endpoint", B3)))</f>
         <v>0</v>
       </c>
       <c r="Z3" s="2" t="b">
@@ -2428,43 +2428,43 @@
         <v>40</v>
       </c>
       <c r="C4" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="b">
+      <c r="G4" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="b">
+      <c r="H4" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G4" t="b">
+      <c r="I4" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H4" t="b">
+      <c r="J4" s="2" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J4" s="2" t="b">
+      <c r="L4" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M4" s="2" t="b">
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O4" s="2" t="b">
@@ -2480,15 +2480,15 @@
         <v>0</v>
       </c>
       <c r="P4" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S4" s="2" t="str">
@@ -2500,15 +2500,15 @@
         <v>0</v>
       </c>
       <c r="U4" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V4" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V4" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X4" s="2" t="b">
@@ -2561,43 +2561,43 @@
         <v>45</v>
       </c>
       <c r="C5" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="b">
+      <c r="G5" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I5" s="2" t="b">
+      <c r="K5" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J5" s="2" t="b">
+      <c r="L5" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M5" s="2" t="b">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O5" s="2" t="b">
@@ -2613,15 +2613,15 @@
         <v>0</v>
       </c>
       <c r="P5" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S5" s="2" t="str">
@@ -2633,15 +2633,15 @@
         <v>0</v>
       </c>
       <c r="U5" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V5" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X5" s="2" t="b">
@@ -2694,19 +2694,19 @@
         <v>48</v>
       </c>
       <c r="C6" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G6" t="b">
@@ -2714,23 +2714,23 @@
         <v>1</v>
       </c>
       <c r="H6" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I6" s="2" t="b">
+      <c r="K6" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="b">
+      <c r="L6" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M6" s="2" t="b">
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O6" s="2" t="b">
@@ -2746,15 +2746,15 @@
         <v>0</v>
       </c>
       <c r="P6" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S6" s="2" t="str">
@@ -2766,15 +2766,15 @@
         <v>0</v>
       </c>
       <c r="U6" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V6" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X6" s="2" t="b">
@@ -2830,43 +2830,43 @@
         <v>51</v>
       </c>
       <c r="C7" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="b">
+      <c r="G7" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="b">
+      <c r="K7" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J7" s="2" t="b">
+      <c r="L7" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M7" s="2" t="b">
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O7" s="2" t="b">
@@ -2882,15 +2882,15 @@
         <v>0</v>
       </c>
       <c r="P7" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S7" s="2" t="str">
@@ -2902,15 +2902,15 @@
         <v>0</v>
       </c>
       <c r="U7" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V7" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X7" s="2" t="b">
@@ -2963,43 +2963,43 @@
         <v>54</v>
       </c>
       <c r="C8" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="b">
+      <c r="G8" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="b">
+      <c r="H8" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G8" t="b">
+      <c r="I8" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H8" t="b">
+      <c r="J8" s="2" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J8" s="2" t="b">
+      <c r="L8" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K8" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M8" s="2" t="b">
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O8" s="2" t="b">
@@ -3015,15 +3015,15 @@
         <v>0</v>
       </c>
       <c r="P8" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S8" s="2" t="str">
@@ -3035,15 +3035,15 @@
         <v>0</v>
       </c>
       <c r="U8" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W8" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W8" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X8" s="2" t="b">
@@ -3093,43 +3093,43 @@
         <v>56</v>
       </c>
       <c r="C9" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="b">
+      <c r="G9" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="b">
+      <c r="H9" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G9" t="b">
+      <c r="I9" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H9" t="b">
+      <c r="J9" s="2" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J9" s="2" t="b">
+      <c r="L9" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M9" s="2" t="b">
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O9" s="2" t="b">
@@ -3145,15 +3145,15 @@
         <v>0</v>
       </c>
       <c r="P9" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S9" s="2" t="str">
@@ -3165,15 +3165,15 @@
         <v>0</v>
       </c>
       <c r="U9" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V9" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V9" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X9" s="2" t="b">
@@ -3229,43 +3229,43 @@
         <v>60</v>
       </c>
       <c r="C10" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="b">
+      <c r="G10" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="b">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M10" s="2" t="b">
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O10" s="2" t="b">
@@ -3281,15 +3281,15 @@
         <v>0</v>
       </c>
       <c r="P10" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S10" s="2" t="str">
@@ -3301,15 +3301,15 @@
         <v>0</v>
       </c>
       <c r="U10" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V10" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X10" s="2" t="b">
@@ -3365,43 +3365,43 @@
         <v>64</v>
       </c>
       <c r="C11" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="b">
+      <c r="G11" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="b">
+      <c r="H11" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G11" t="b">
+      <c r="I11" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H11" t="b">
+      <c r="J11" s="2" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J11" s="2" t="b">
+      <c r="L11" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M11" s="2" t="b">
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O11" s="2" t="b">
@@ -3417,15 +3417,15 @@
         <v>0</v>
       </c>
       <c r="P11" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S11" s="2" t="str">
@@ -3437,15 +3437,15 @@
         <v>0</v>
       </c>
       <c r="U11" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V11" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X11" s="2" t="b">
@@ -3501,43 +3501,43 @@
         <v>67</v>
       </c>
       <c r="C12" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="b">
+      <c r="F12" s="2" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F12" s="2" t="b">
+      <c r="H12" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H12" t="b">
+      <c r="J12" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I12" s="2" t="b">
+      <c r="K12" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J12" s="2" t="b">
+      <c r="L12" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M12" s="2" t="b">
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O12" s="2" t="b">
@@ -3553,15 +3553,15 @@
         <v>0</v>
       </c>
       <c r="P12" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S12" s="2" t="str">
@@ -3573,15 +3573,15 @@
         <v>0</v>
       </c>
       <c r="U12" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V12" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X12" s="2" t="b">
@@ -3637,43 +3637,43 @@
         <v>70</v>
       </c>
       <c r="C13" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="b">
+      <c r="F13" s="2" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F13" s="2" t="b">
+      <c r="H13" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H13" t="b">
+      <c r="J13" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I13" s="2" t="b">
+      <c r="K13" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J13" s="2" t="b">
+      <c r="L13" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M13" s="2" t="b">
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O13" s="2" t="b">
@@ -3689,15 +3689,15 @@
         <v>0</v>
       </c>
       <c r="P13" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S13" s="2" t="str">
@@ -3709,15 +3709,15 @@
         <v>0</v>
       </c>
       <c r="U13" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V13" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X13" s="2" t="b">
@@ -3773,43 +3773,43 @@
         <v>73</v>
       </c>
       <c r="C14" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="b">
+      <c r="F14" s="2" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F14" s="2" t="b">
+      <c r="H14" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H14" t="b">
+      <c r="J14" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I14" s="2" t="b">
+      <c r="K14" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J14" s="2" t="b">
+      <c r="L14" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K14" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M14" s="2" t="b">
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O14" s="2" t="b">
@@ -3825,15 +3825,15 @@
         <v>0</v>
       </c>
       <c r="P14" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S14" s="2" t="str">
@@ -3845,15 +3845,15 @@
         <v>0</v>
       </c>
       <c r="U14" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V14" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X14" s="2" t="b">
@@ -3909,43 +3909,43 @@
         <v>76</v>
       </c>
       <c r="C15" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D15" s="2" t="b">
+      <c r="F15" s="2" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I15" s="2" t="b">
+      <c r="K15" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J15" s="2" t="b">
+      <c r="L15" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K15" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M15" s="2" t="b">
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O15" s="2" t="b">
@@ -3961,15 +3961,15 @@
         <v>0</v>
       </c>
       <c r="P15" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S15" s="2" t="str">
@@ -3981,15 +3981,15 @@
         <v>0</v>
       </c>
       <c r="U15" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V15" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V15" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X15" s="2" t="b">
@@ -4045,43 +4045,43 @@
         <v>80</v>
       </c>
       <c r="C16" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E16" s="2" t="b">
+      <c r="G16" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F16" s="2" t="b">
+      <c r="H16" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H16" t="b">
+      <c r="J16" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I16" s="2" t="b">
+      <c r="K16" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J16" s="2" t="b">
+      <c r="L16" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M16" s="2" t="b">
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O16" s="2" t="b">
@@ -4097,15 +4097,15 @@
         <v>0</v>
       </c>
       <c r="P16" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S16" s="2" t="str">
@@ -4117,15 +4117,15 @@
         <v>0</v>
       </c>
       <c r="U16" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V16" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V16" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X16" s="2" t="b">
@@ -4181,43 +4181,43 @@
         <v>83</v>
       </c>
       <c r="C17" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E17" s="2" t="b">
+      <c r="G17" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F17" s="2" t="b">
+      <c r="H17" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H17" t="b">
+      <c r="J17" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I17" s="2" t="b">
+      <c r="K17" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J17" s="2" t="b">
+      <c r="L17" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K17" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M17" s="2" t="b">
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O17" s="2" t="b">
@@ -4233,15 +4233,15 @@
         <v>0</v>
       </c>
       <c r="P17" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S17" s="2" t="str">
@@ -4253,15 +4253,15 @@
         <v>0</v>
       </c>
       <c r="U17" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V17" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V17" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X17" s="2" t="b">
@@ -4317,43 +4317,43 @@
         <v>86</v>
       </c>
       <c r="C18" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E18" s="2" t="b">
+      <c r="G18" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="b">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M18" s="2" t="b">
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O18" s="2" t="b">
@@ -4369,15 +4369,15 @@
         <v>0</v>
       </c>
       <c r="P18" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S18" s="2" t="str">
@@ -4389,15 +4389,15 @@
         <v>0</v>
       </c>
       <c r="U18" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V18" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V18" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X18" s="2" t="b">
@@ -4453,43 +4453,43 @@
         <v>89</v>
       </c>
       <c r="C19" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E19" s="2" t="b">
+      <c r="G19" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F19" s="2" t="b">
+      <c r="H19" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G19" t="b">
+      <c r="I19" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H19" t="b">
+      <c r="J19" s="2" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J19" s="2" t="b">
+      <c r="L19" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K19" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M19" s="2" t="b">
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O19" s="2" t="b">
@@ -4505,15 +4505,15 @@
         <v>0</v>
       </c>
       <c r="P19" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S19" s="2" t="str">
@@ -4525,15 +4525,15 @@
         <v>0</v>
       </c>
       <c r="U19" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X19" s="2" t="b">
@@ -4589,43 +4589,43 @@
         <v>92</v>
       </c>
       <c r="C20" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E20" s="2" t="b">
+      <c r="G20" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F20" s="2" t="b">
+      <c r="H20" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G20" t="b">
+      <c r="I20" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H20" t="b">
+      <c r="J20" s="2" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J20" s="2" t="b">
+      <c r="L20" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K20" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M20" s="2" t="b">
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O20" s="2" t="b">
@@ -4641,15 +4641,15 @@
         <v>0</v>
       </c>
       <c r="P20" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S20" s="2" t="str">
@@ -4661,15 +4661,15 @@
         <v>0</v>
       </c>
       <c r="U20" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X20" s="2" t="b">
@@ -4725,43 +4725,43 @@
         <v>95</v>
       </c>
       <c r="C21" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D21" s="2" t="b">
+      <c r="F21" s="2" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F21" s="2" t="b">
+      <c r="H21" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H21" t="b">
+      <c r="J21" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I21" s="2" t="b">
+      <c r="K21" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J21" s="2" t="b">
+      <c r="L21" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K21" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M21" s="2" t="b">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O21" s="2" t="b">
@@ -4777,15 +4777,15 @@
         <v>0</v>
       </c>
       <c r="P21" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S21" s="2" t="str">
@@ -4797,15 +4797,15 @@
         <v>0</v>
       </c>
       <c r="U21" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X21" s="2" t="b">
@@ -4861,43 +4861,43 @@
         <v>98</v>
       </c>
       <c r="C22" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D22" s="2" t="b">
+      <c r="F22" s="2" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F22" s="2" t="b">
+      <c r="H22" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H22" t="b">
+      <c r="J22" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I22" s="2" t="b">
+      <c r="K22" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J22" s="2" t="b">
+      <c r="L22" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K22" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M22" s="2" t="b">
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O22" s="2" t="b">
@@ -4913,15 +4913,15 @@
         <v>0</v>
       </c>
       <c r="P22" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S22" s="2" t="str">
@@ -4933,15 +4933,15 @@
         <v>0</v>
       </c>
       <c r="U22" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X22" s="2" t="b">
@@ -4997,43 +4997,43 @@
         <v>101</v>
       </c>
       <c r="C23" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D23" s="2" t="b">
+      <c r="F23" s="2" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G23" t="b">
+      <c r="I23" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J23" s="2" t="b">
+      <c r="L23" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K23" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M23" s="2" t="b">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O23" s="2" t="b">
@@ -5049,15 +5049,15 @@
         <v>0</v>
       </c>
       <c r="P23" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S23" s="2" t="str">
@@ -5069,15 +5069,15 @@
         <v>0</v>
       </c>
       <c r="U23" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X23" s="2" t="b">
@@ -5133,43 +5133,43 @@
         <v>104</v>
       </c>
       <c r="C24" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E24" s="2" t="b">
+      <c r="G24" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F24" s="2" t="b">
+      <c r="H24" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H24" t="b">
+      <c r="J24" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I24" s="2" t="b">
+      <c r="K24" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J24" s="2" t="b">
+      <c r="L24" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K24" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M24" s="2" t="b">
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O24" s="2" t="b">
@@ -5185,15 +5185,15 @@
         <v>0</v>
       </c>
       <c r="P24" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S24" s="2" t="str">
@@ -5205,15 +5205,15 @@
         <v>0</v>
       </c>
       <c r="U24" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X24" s="2" t="b">
@@ -5269,43 +5269,43 @@
         <v>107</v>
       </c>
       <c r="C25" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E25" s="2" t="b">
+      <c r="G25" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F25" s="2" t="b">
+      <c r="H25" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H25" t="b">
+      <c r="J25" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I25" s="2" t="b">
+      <c r="K25" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J25" s="2" t="b">
+      <c r="L25" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K25" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M25" s="2" t="b">
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O25" s="2" t="b">
@@ -5321,15 +5321,15 @@
         <v>0</v>
       </c>
       <c r="P25" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S25" s="2" t="str">
@@ -5341,15 +5341,15 @@
         <v>0</v>
       </c>
       <c r="U25" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X25" s="2" t="b">
@@ -5405,43 +5405,43 @@
         <v>110</v>
       </c>
       <c r="C26" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E26" s="2" t="b">
+      <c r="G26" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F26" s="2" t="b">
+      <c r="H26" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H26" t="b">
+      <c r="J26" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I26" s="2" t="b">
+      <c r="K26" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J26" s="2" t="b">
+      <c r="L26" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M26" s="2" t="b">
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O26" s="2" t="b">
@@ -5457,15 +5457,15 @@
         <v>0</v>
       </c>
       <c r="P26" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S26" s="2" t="b">
@@ -5477,15 +5477,15 @@
         <v>0</v>
       </c>
       <c r="U26" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X26" s="2" t="b">
@@ -5541,43 +5541,43 @@
         <v>116</v>
       </c>
       <c r="C27" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E27" s="2" t="b">
+      <c r="G27" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F27" s="2" t="b">
+      <c r="H27" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H27" t="b">
+      <c r="J27" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I27" s="2" t="b">
+      <c r="K27" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J27" s="2" t="b">
+      <c r="L27" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K27" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M27" s="2" t="b">
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O27" s="2" t="b">
@@ -5593,15 +5593,15 @@
         <v>0</v>
       </c>
       <c r="P27" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S27" s="2" t="b">
@@ -5613,15 +5613,15 @@
         <v>0</v>
       </c>
       <c r="U27" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X27" s="2" t="b">
@@ -5677,43 +5677,43 @@
         <v>120</v>
       </c>
       <c r="C28" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E28" s="2" t="b">
+      <c r="G28" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F28" s="2" t="b">
+      <c r="H28" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H28" t="b">
+      <c r="J28" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I28" s="2" t="b">
+      <c r="K28" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J28" s="2" t="b">
+      <c r="L28" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K28" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M28" s="2" t="b">
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O28" s="2" t="b">
@@ -5729,15 +5729,15 @@
         <v>0</v>
       </c>
       <c r="P28" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S28" s="2" t="b">
@@ -5749,15 +5749,15 @@
         <v>0</v>
       </c>
       <c r="U28" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X28" s="2" t="b">
@@ -5813,43 +5813,43 @@
         <v>124</v>
       </c>
       <c r="C29" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E29" s="2" t="b">
+      <c r="G29" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F29" s="2" t="b">
+      <c r="H29" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H29" t="b">
+      <c r="J29" s="2" t="b">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="L29" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M29" s="2" t="b">
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O29" s="2" t="b">
@@ -5865,15 +5865,15 @@
         <v>0</v>
       </c>
       <c r="P29" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S29" s="2" t="b">
@@ -5885,15 +5885,15 @@
         <v>0</v>
       </c>
       <c r="U29" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X29" s="2" t="b">
@@ -5949,43 +5949,43 @@
         <v>127</v>
       </c>
       <c r="C30" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E30" s="2" t="b">
+      <c r="G30" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F30" s="2" t="b">
+      <c r="H30" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H30" t="b">
+      <c r="J30" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I30" s="2" t="b">
+      <c r="K30" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J30" s="2" t="b">
+      <c r="L30" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M30" s="2" t="b">
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O30" s="2" t="b">
@@ -6001,15 +6001,15 @@
         <v>0</v>
       </c>
       <c r="P30" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S30" s="2" t="str">
@@ -6021,15 +6021,15 @@
         <v>0</v>
       </c>
       <c r="U30" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W30" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W30" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X30" s="2" t="b">
@@ -6079,43 +6079,43 @@
         <v>129</v>
       </c>
       <c r="C31" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E31" s="2" t="b">
+      <c r="G31" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F31" s="2" t="b">
+      <c r="H31" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H31" t="b">
+      <c r="J31" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I31" s="2" t="b">
+      <c r="K31" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J31" s="2" t="b">
+      <c r="L31" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K31" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="b">
@@ -6123,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O31" s="2" t="b">
@@ -6131,15 +6131,15 @@
         <v>0</v>
       </c>
       <c r="P31" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S31" s="2" t="str">
@@ -6151,15 +6151,15 @@
         <v>0</v>
       </c>
       <c r="U31" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W31" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W31" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X31" s="2" t="b">
@@ -6209,43 +6209,43 @@
         <v>131</v>
       </c>
       <c r="C32" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E32" s="2" t="b">
+      <c r="G32" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I32" s="2" t="b">
+      <c r="K32" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J32" s="2" t="b">
+      <c r="L32" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M32" s="2" t="b">
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O32" s="2" t="b">
@@ -6261,15 +6261,15 @@
         <v>0</v>
       </c>
       <c r="P32" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q32" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S32" s="2" t="b">
@@ -6281,15 +6281,15 @@
         <v>0</v>
       </c>
       <c r="U32" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X32" s="2" t="b">
@@ -6345,43 +6345,43 @@
         <v>134</v>
       </c>
       <c r="C33" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E33" s="2" t="b">
+      <c r="G33" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I33" s="2" t="b">
+      <c r="K33" s="2" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J33" s="2" t="b">
+      <c r="L33" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K33" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M33" s="2" t="b">
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O33" s="2" t="b">
@@ -6397,15 +6397,15 @@
         <v>0</v>
       </c>
       <c r="P33" s="2" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="R33" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R33" s="2" t="b">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S33" s="2" t="b">
@@ -6417,15 +6417,15 @@
         <v>0</v>
       </c>
       <c r="U33" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="2" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="2" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="2" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X33" s="2" t="b">
@@ -6481,27 +6481,27 @@
         <v>138</v>
       </c>
       <c r="C34" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E34" s="2" t="b">
+      <c r="G34" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G34" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H34" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I34" s="2" t="b">
@@ -6509,15 +6509,15 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K34" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M34" s="2" t="b">
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O34" s="2" t="b">
@@ -6617,27 +6617,27 @@
         <v>141</v>
       </c>
       <c r="C35" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E35" s="2" t="b">
+      <c r="G35" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G35" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H35" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I35" s="2" t="b">
@@ -6645,15 +6645,15 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K35" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M35" s="2" t="b">
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O35" s="2" t="b">
@@ -6753,27 +6753,27 @@
         <v>144</v>
       </c>
       <c r="C36" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E36" s="2" t="b">
+      <c r="G36" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G36" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H36" t="b">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I36" s="2" t="b">
@@ -6781,15 +6781,15 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K36" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M36" s="2" t="b">
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O36" s="2" t="b">
@@ -6889,27 +6889,27 @@
         <v>147</v>
       </c>
       <c r="C37" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E37" s="2" t="b">
+      <c r="G37" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G37" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H37" t="b">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I37" s="2" t="b">
@@ -6917,15 +6917,15 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K37" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M37" s="2" t="b">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O37" s="2" t="b">
@@ -7025,27 +7025,27 @@
         <v>150</v>
       </c>
       <c r="C38" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E38" s="2" t="b">
+      <c r="G38" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F38" s="2" t="b">
+      <c r="H38" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G38" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H38" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I38" s="2" t="b">
@@ -7053,15 +7053,15 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K38" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M38" s="2" t="b">
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O38" s="2" t="b">
@@ -7161,27 +7161,27 @@
         <v>153</v>
       </c>
       <c r="C39" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E39" s="2" t="b">
+      <c r="G39" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F39" s="2" t="b">
+      <c r="H39" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G39" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H39" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I39" s="2" t="b">
@@ -7189,15 +7189,15 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K39" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K39" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M39" s="2" t="b">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O39" s="2" t="b">
@@ -7297,27 +7297,27 @@
         <v>156</v>
       </c>
       <c r="C40" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E40" s="2" t="b">
+      <c r="G40" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F40" s="2" t="b">
+      <c r="H40" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G40" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H40" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I40" s="2" t="b">
@@ -7325,15 +7325,15 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K40" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M40" s="2" t="b">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O40" s="2" t="b">
@@ -7433,27 +7433,27 @@
         <v>159</v>
       </c>
       <c r="C41" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E41" s="2" t="b">
+      <c r="G41" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F41" s="2" t="b">
+      <c r="H41" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G41" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H41" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I41" s="2" t="b">
@@ -7461,15 +7461,15 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K41" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M41" s="2" t="b">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O41" s="2" t="b">
@@ -7569,27 +7569,27 @@
         <v>162</v>
       </c>
       <c r="C42" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E42" s="2" t="b">
+      <c r="G42" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="F42" s="2" t="b">
+      <c r="H42" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G42" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H42" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I42" s="2" t="b">
@@ -7597,15 +7597,15 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K42" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K42" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M42" s="2" t="b">
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O42" s="2" t="b">
@@ -7705,27 +7705,27 @@
         <v>165</v>
       </c>
       <c r="C43" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E43" s="2" t="b">
+      <c r="G43" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="F43" s="2" t="b">
+      <c r="H43" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G43" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H43" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I43" s="2" t="b">
@@ -7733,15 +7733,15 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K43" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M43" s="2" t="b">
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O43" s="2" t="b">
@@ -7841,27 +7841,27 @@
         <v>168</v>
       </c>
       <c r="C44" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E44" s="2" t="b">
+      <c r="G44" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="F44" s="2" t="b">
+      <c r="H44" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G44" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H44" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I44" s="2" t="b">
@@ -7869,15 +7869,15 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K44" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M44" s="2" t="b">
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O44" s="2" t="b">
@@ -7977,27 +7977,27 @@
         <v>171</v>
       </c>
       <c r="C45" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E45" s="2" t="b">
+      <c r="G45" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="F45" s="2" t="b">
+      <c r="H45" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G45" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H45" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I45" s="2" t="b">
@@ -8005,15 +8005,15 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K45" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M45" s="2" t="b">
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O45" s="2" t="b">
@@ -8113,27 +8113,27 @@
         <v>174</v>
       </c>
       <c r="C46" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E46" s="2" t="b">
+      <c r="G46" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G46" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H46" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I46" s="2" t="b">
@@ -8141,15 +8141,15 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K46" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M46" s="2" t="b">
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O46" s="2" t="b">
@@ -8249,27 +8249,27 @@
         <v>177</v>
       </c>
       <c r="C47" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E47" s="2" t="b">
+      <c r="G47" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G47" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H47" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I47" s="2" t="b">
@@ -8277,15 +8277,15 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K47" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K47" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M47" s="2" t="b">
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O47" s="2" t="b">
@@ -8385,27 +8385,27 @@
         <v>180</v>
       </c>
       <c r="C48" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="b">
+      <c r="G48" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F48" s="2" t="b">
+      <c r="H48" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G48" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H48" t="b">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I48" s="2" t="b">
@@ -8413,15 +8413,15 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M48" s="2" t="b">
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O48" s="2" t="b">
@@ -8521,27 +8521,27 @@
         <v>183</v>
       </c>
       <c r="C49" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E49" s="2" t="b">
+      <c r="G49" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F49" s="2" t="b">
+      <c r="H49" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G49" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H49" t="b">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I49" s="2" t="b">
@@ -8549,15 +8549,15 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M49" s="2" t="b">
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O49" s="2" t="b">
@@ -8657,27 +8657,27 @@
         <v>186</v>
       </c>
       <c r="C50" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E50" s="2" t="b">
+      <c r="G50" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F50" s="2" t="b">
+      <c r="H50" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G50" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H50" t="b">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I50" s="2" t="b">
@@ -8685,15 +8685,15 @@
         <v>0</v>
       </c>
       <c r="J50" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M50" s="2" t="b">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O50" s="2" t="b">
@@ -8793,27 +8793,27 @@
         <v>189</v>
       </c>
       <c r="C51" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E51" s="2" t="b">
+      <c r="G51" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="F51" s="2" t="b">
+      <c r="H51" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G51" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H51" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I51" s="2" t="b">
@@ -8821,15 +8821,15 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M51" s="2" t="b">
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O51" s="2" t="b">
@@ -8929,27 +8929,27 @@
         <v>192</v>
       </c>
       <c r="C52" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E52" s="2" t="b">
+      <c r="G52" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="F52" s="2" t="b">
+      <c r="H52" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G52" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H52" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I52" s="2" t="b">
@@ -8957,15 +8957,15 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M52" s="2" t="b">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O52" s="2" t="b">
@@ -9065,27 +9065,27 @@
         <v>195</v>
       </c>
       <c r="C53" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D53" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D53" s="2" t="b">
+      <c r="F53" s="2" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F53" s="2" t="b">
+      <c r="H53" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G53" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H53" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I53" s="2" t="b">
@@ -9093,15 +9093,15 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M53" s="2" t="b">
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O53" s="2" t="b">
@@ -9201,27 +9201,27 @@
         <v>198</v>
       </c>
       <c r="C54" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E54" s="2" t="b">
+      <c r="G54" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F54" s="2" t="b">
+      <c r="H54" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G54" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H54" t="b">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I54" s="2" t="b">
@@ -9229,15 +9229,15 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M54" s="2" t="b">
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O54" s="2" t="b">
@@ -9337,27 +9337,27 @@
         <v>201</v>
       </c>
       <c r="C55" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D55" s="2" t="b">
+      <c r="F55" s="2" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F55" s="2" t="b">
+      <c r="H55" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G55" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H55" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I55" s="2" t="b">
@@ -9365,15 +9365,15 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M55" s="2" t="b">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O55" s="2" t="b">
@@ -9473,27 +9473,27 @@
         <v>204</v>
       </c>
       <c r="C56" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E56" s="2" t="b">
+      <c r="G56" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F56" s="2" t="b">
+      <c r="H56" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G56" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H56" t="b">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I56" s="2" t="b">
@@ -9501,15 +9501,15 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M56" s="2" t="b">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O56" s="2" t="b">
@@ -9609,27 +9609,27 @@
         <v>207</v>
       </c>
       <c r="C57" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E57" s="2" t="b">
+      <c r="G57" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F57" s="2" t="b">
+      <c r="H57" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G57" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H57" t="b">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I57" s="2" t="b">
@@ -9637,15 +9637,15 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M57" s="2" t="b">
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O57" s="2" t="b">
@@ -9745,27 +9745,27 @@
         <v>210</v>
       </c>
       <c r="C58" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E58" s="2" t="b">
+      <c r="G58" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F58" s="2" t="b">
+      <c r="H58" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G58" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H58" t="b">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I58" s="2" t="b">
@@ -9773,15 +9773,15 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M58" s="2" t="b">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O58" s="2" t="b">
@@ -9881,27 +9881,27 @@
         <v>213</v>
       </c>
       <c r="C59" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E59" s="2" t="b">
+      <c r="G59" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F59" s="2" t="b">
+      <c r="H59" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G59" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H59" t="b">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I59" s="2" t="b">
@@ -9909,15 +9909,15 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M59" s="2" t="b">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O59" s="2" t="b">
@@ -10017,27 +10017,27 @@
         <v>216</v>
       </c>
       <c r="C60" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D60" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E60" s="2" t="b">
+      <c r="G60" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="F60" s="2" t="b">
+      <c r="H60" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G60" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H60" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I60" s="2" t="b">
@@ -10045,15 +10045,15 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M60" s="2" t="b">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O60" s="2" t="b">
@@ -10153,27 +10153,27 @@
         <v>219</v>
       </c>
       <c r="C61" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D61" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E61" s="2" t="b">
+      <c r="G61" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="F61" s="2" t="b">
+      <c r="H61" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G61" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H61" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I61" s="2" t="b">
@@ -10181,15 +10181,15 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M61" s="2" t="b">
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O61" s="2" t="b">
@@ -10289,27 +10289,27 @@
         <v>222</v>
       </c>
       <c r="C62" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E62" s="2" t="b">
+      <c r="G62" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="F62" s="2" t="b">
+      <c r="H62" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G62" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H62" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I62" s="2" t="b">
@@ -10317,15 +10317,15 @@
         <v>0</v>
       </c>
       <c r="J62" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M62" s="2" t="b">
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O62" s="2" t="b">
@@ -10425,27 +10425,27 @@
         <v>225</v>
       </c>
       <c r="C63" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E63" s="2" t="b">
+      <c r="G63" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="F63" s="2" t="b">
+      <c r="H63" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G63" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H63" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I63" s="2" t="b">
@@ -10453,15 +10453,15 @@
         <v>0</v>
       </c>
       <c r="J63" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M63" s="2" t="b">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O63" s="2" t="b">
@@ -10561,27 +10561,27 @@
         <v>228</v>
       </c>
       <c r="C64" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D64" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D64" s="2" t="b">
+      <c r="F64" s="2" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F64" s="2" t="b">
+      <c r="H64" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G64" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H64" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I64" s="2" t="b">
@@ -10589,15 +10589,15 @@
         <v>0</v>
       </c>
       <c r="J64" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M64" s="2" t="b">
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O64" s="2" t="b">
@@ -10697,27 +10697,27 @@
         <v>231</v>
       </c>
       <c r="C65" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D65" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D65" s="2" t="b">
+      <c r="F65" s="2" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F65" s="2" t="b">
+      <c r="H65" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G65" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H65" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I65" s="2" t="b">
@@ -10725,15 +10725,15 @@
         <v>0</v>
       </c>
       <c r="J65" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M65" s="2" t="b">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O65" s="2" t="b">
@@ -10833,27 +10833,27 @@
         <v>234</v>
       </c>
       <c r="C66" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="2" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E66" s="2" t="b">
+      <c r="G66" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F66" s="2" t="b">
+      <c r="H66" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G66" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H66" t="b">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I66" s="2" t="b">
@@ -10861,15 +10861,15 @@
         <v>0</v>
       </c>
       <c r="J66" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="2" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="2" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="2" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M66" s="2" t="b">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="2" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O66" s="2" t="b">

--- a/sku-maps/csv/xls/RHEL Data Breakdown.xlsx
+++ b/sku-maps/csv/xls/RHEL Data Breakdown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkelly\github\sku-calc\sku-maps\csv\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855DA6DA-8796-4C65-B7C3-03EFB38063E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C86491F-AE5C-4752-807B-D20F55E9EBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="930" yWindow="1380" windowWidth="14265" windowHeight="15510" xr2:uid="{EEEE2005-B44C-4558-9957-76DB6E9A69D3}"/>
   </bookViews>
@@ -41,21 +41,45 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="523">
   <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>SKU Description</t>
+  </si>
+  <si>
+    <t>x86</t>
+  </si>
+  <si>
+    <t>IBM POWER</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>zSystems</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>Virtual Datacenters</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Workstation</t>
+  </si>
+  <si>
+    <t>HPC</t>
+  </si>
+  <si>
     <t>SAP</t>
   </si>
   <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>SKU Description</t>
-  </si>
-  <si>
-    <t>x86</t>
-  </si>
-  <si>
-    <t>IBM POWER</t>
-  </si>
-  <si>
     <t>Sap Applications</t>
   </si>
   <si>
@@ -74,6 +98,9 @@
     <t>Add-on</t>
   </si>
   <si>
+    <t xml:space="preserve">Satellite / Smart Management </t>
+  </si>
+  <si>
     <t>Extended Update support</t>
   </si>
   <si>
@@ -86,6 +113,15 @@
     <t>Disaster Recovery</t>
   </si>
   <si>
+    <t>Is it for Edge, Endpoint or gateway?</t>
+  </si>
+  <si>
+    <t>Include in Data?</t>
+  </si>
+  <si>
+    <t>Licensing Model</t>
+  </si>
+  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -1572,49 +1608,13 @@
   </si>
   <si>
     <t>RH00063F3</t>
-  </si>
-  <si>
-    <t>Physical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satellite / Smart Management </t>
-  </si>
-  <si>
-    <t>Virtual</t>
-  </si>
-  <si>
-    <t>Is it for Edge, Endpoint or gateway?</t>
-  </si>
-  <si>
-    <t>Virtual Datacenters</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>Workstation</t>
-  </si>
-  <si>
-    <t>HPC</t>
-  </si>
-  <si>
-    <t>Include in Data?</t>
-  </si>
-  <si>
-    <t>Licensing Model</t>
-  </si>
-  <si>
-    <t>zSystems</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1994,11 +1994,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27715D40-7855-4605-8396-838795ACCD8A}">
   <dimension ref="A1:AM1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="S52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z78" sqref="Z78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="135" bestFit="1" customWidth="1"/>
@@ -2034,129 +2034,129 @@
     <col min="40" max="52" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>511</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>513</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>515</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>517</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>518</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>519</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>514</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>520</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>521</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="b">
         <f>IF(OR(D2=TRUE,E2=TRUE,F2=TRUE),FALSE,TRUE)</f>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD2" s="2">
         <v>448</v>
@@ -2269,27 +2269,27 @@
         <v>1209.0899999999999</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="b">
         <f t="shared" ref="C3:C66" si="6">IF(OR(D3=TRUE,E3=TRUE,F3=TRUE),FALSE,TRUE)</f>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD3" s="2">
         <v>1379</v>
@@ -2402,30 +2402,30 @@
         <v>3724.14</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="b">
         <f t="shared" si="6"/>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD4" s="2">
         <v>1798</v>
@@ -2538,27 +2538,27 @@
         <v>4854.9799999999996</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="b">
         <f t="shared" si="6"/>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD5" s="2">
         <v>153</v>
@@ -2671,27 +2671,27 @@
         <v>413.59</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="b">
         <f t="shared" si="6"/>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD6" s="2">
         <v>1379</v>
@@ -2804,30 +2804,30 @@
         <v>3724.14</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="b">
         <f t="shared" si="6"/>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD7" s="2">
         <v>448</v>
@@ -2940,27 +2940,27 @@
         <v>1209.0899999999999</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="b">
         <f t="shared" si="6"/>
@@ -3064,33 +3064,33 @@
       </c>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD8" s="2">
         <v>4347</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="b">
         <f t="shared" si="6"/>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD9" s="2">
         <v>172</v>
@@ -3203,30 +3203,30 @@
         <v>463.89</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="b">
         <f t="shared" si="6"/>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD10" s="2">
         <v>103</v>
@@ -3339,30 +3339,30 @@
         <v>277.58999999999997</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="b">
         <f t="shared" si="6"/>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD11" s="2">
         <v>86</v>
@@ -3475,30 +3475,30 @@
         <v>232.88</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="b">
         <f t="shared" si="6"/>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD12" s="2">
         <v>535</v>
@@ -3611,30 +3611,30 @@
         <v>1443.83</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39">
       <c r="A13" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="b">
         <f t="shared" si="6"/>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD13" s="2">
         <v>59</v>
@@ -3747,30 +3747,30 @@
         <v>158.36000000000001</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="b">
         <f t="shared" si="6"/>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD14" s="2">
         <v>79</v>
@@ -3883,30 +3883,30 @@
         <v>214.25</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="b">
         <f t="shared" si="6"/>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD15" s="2">
         <v>172</v>
@@ -4019,30 +4019,30 @@
         <v>463.89</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="b">
         <f t="shared" si="6"/>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD16" s="2">
         <v>535</v>
@@ -4155,30 +4155,30 @@
         <v>1443.83</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ16" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C17" s="2" t="b">
         <f t="shared" si="6"/>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD17" s="2">
         <v>268</v>
@@ -4291,30 +4291,30 @@
         <v>722.84</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ17" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39">
       <c r="A18" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2" t="b">
         <f t="shared" si="6"/>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD18" s="2">
         <v>68</v>
@@ -4427,30 +4427,30 @@
         <v>184.44</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ18" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="AL18" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM18" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39">
       <c r="A19" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2" t="b">
         <f t="shared" si="6"/>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD19" s="2">
         <v>275</v>
@@ -4563,30 +4563,30 @@
         <v>743.34</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL19" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C20" s="2" t="b">
         <f t="shared" si="6"/>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD20" s="2">
         <v>138</v>
@@ -4699,30 +4699,30 @@
         <v>372.6</v>
       </c>
       <c r="AF20" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ20" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK20" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL20" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM20" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C21" s="2" t="b">
         <f t="shared" si="6"/>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD21" s="2">
         <v>859</v>
@@ -4835,30 +4835,30 @@
         <v>2319.44</v>
       </c>
       <c r="AF21" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ21" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK21" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL21" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM21" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C22" s="2" t="b">
         <f t="shared" si="6"/>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD22" s="2">
         <v>93</v>
@@ -4971,30 +4971,30 @@
         <v>251.51</v>
       </c>
       <c r="AF22" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG22" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ22" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK22" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL22" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AM22" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C23" s="2" t="b">
         <f t="shared" si="6"/>
@@ -5098,7 +5098,7 @@
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD23" s="2">
         <v>275</v>
@@ -5107,30 +5107,30 @@
         <v>743.34</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK23" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL23" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM23" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C24" s="2" t="b">
         <f t="shared" si="6"/>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD24" s="2">
         <v>859</v>
@@ -5243,30 +5243,30 @@
         <v>2319.44</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ24" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK24" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL24" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM24" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2" t="b">
         <f t="shared" si="6"/>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD25" s="2">
         <v>430</v>
@@ -5379,30 +5379,30 @@
         <v>1160.6500000000001</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ25" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK25" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL25" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM25" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C26" s="2" t="b">
         <f t="shared" si="6"/>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD26" s="2">
         <v>68</v>
@@ -5515,30 +5515,30 @@
         <v>184.44</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="AJ26" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AK26" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="AL26" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM26" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C27" s="2" t="b">
         <f t="shared" si="6"/>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD27" s="2">
         <v>6900</v>
@@ -5651,30 +5651,30 @@
         <v>18630</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="AJ27" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="AK27" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL27" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM27" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C28" s="2" t="b">
         <f t="shared" si="6"/>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD28" s="2">
         <v>3450</v>
@@ -5787,30 +5787,30 @@
         <v>9315</v>
       </c>
       <c r="AF28" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="AJ28" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="AK28" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL28" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM28" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C29" s="2" t="b">
         <f t="shared" si="6"/>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD29" s="2">
         <v>206</v>
@@ -5923,30 +5923,30 @@
         <v>557.04</v>
       </c>
       <c r="AF29" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ29" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="AK29" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="AL29" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM29" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C30" s="2" t="b">
         <f t="shared" si="6"/>
@@ -6050,33 +6050,33 @@
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD30" s="2">
         <v>310</v>
       </c>
       <c r="AF30" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ30" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK30" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL30" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C31" s="2" t="b">
         <f t="shared" si="6"/>
@@ -6180,33 +6180,33 @@
       </c>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD31" s="2">
         <v>965</v>
       </c>
       <c r="AF31" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ31" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK31" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL31" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C32" s="2" t="b">
         <f t="shared" si="6"/>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD32" s="2">
         <v>896</v>
@@ -6319,30 +6319,30 @@
         <v>2420.04</v>
       </c>
       <c r="AF32" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ32" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK32" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL32" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM32" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C33" s="2" t="b">
         <f t="shared" si="6"/>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD33" s="2">
         <v>551</v>
@@ -6455,30 +6455,30 @@
         <v>1488.54</v>
       </c>
       <c r="AF33" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ33" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK33" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL33" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM33" s="2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C34" s="2" t="b">
         <f t="shared" si="6"/>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD34" s="2">
         <v>2243</v>
@@ -6591,30 +6591,30 @@
         <v>6054.75</v>
       </c>
       <c r="AF34" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ34" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK34" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL34" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM34" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C35" s="2" t="b">
         <f t="shared" si="6"/>
@@ -6718,7 +6718,7 @@
       </c>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD35" s="2">
         <v>1379</v>
@@ -6727,30 +6727,30 @@
         <v>3722.27</v>
       </c>
       <c r="AF35" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ35" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK35" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL35" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM35" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C36" s="2" t="b">
         <f t="shared" si="6"/>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD36" s="2">
         <v>448</v>
@@ -6863,30 +6863,30 @@
         <v>1210.95</v>
       </c>
       <c r="AF36" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG36" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ36" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK36" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL36" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM36" s="2" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C37" s="2" t="b">
         <f t="shared" si="6"/>
@@ -6990,7 +6990,7 @@
       </c>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD37" s="2">
         <v>276</v>
@@ -6999,30 +6999,30 @@
         <v>745.2</v>
       </c>
       <c r="AF37" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG37" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ37" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK37" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL37" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM37" s="2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C38" s="2" t="b">
         <f t="shared" si="6"/>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD38" s="2">
         <v>241</v>
@@ -7135,30 +7135,30 @@
         <v>650.19000000000005</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ38" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AK38" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL38" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM38" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C39" s="2" t="b">
         <f t="shared" si="6"/>
@@ -7262,7 +7262,7 @@
       </c>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD39" s="2">
         <v>121</v>
@@ -7271,30 +7271,30 @@
         <v>326.02999999999997</v>
       </c>
       <c r="AF39" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ39" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AK39" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL39" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM39" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C40" s="2" t="b">
         <f t="shared" si="6"/>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD40" s="2">
         <v>482</v>
@@ -7407,30 +7407,30 @@
         <v>1302.24</v>
       </c>
       <c r="AF40" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ40" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AK40" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL40" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM40" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C41" s="2" t="b">
         <f t="shared" si="6"/>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD41" s="2">
         <v>296</v>
@@ -7543,30 +7543,30 @@
         <v>799.23</v>
       </c>
       <c r="AF41" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ41" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AK41" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL41" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM41" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C42" s="2" t="b">
         <f t="shared" si="6"/>
@@ -7670,7 +7670,7 @@
       </c>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD42" s="2">
         <v>551</v>
@@ -7679,30 +7679,30 @@
         <v>1488.54</v>
       </c>
       <c r="AF42" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG42" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ42" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK42" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL42" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM42" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C43" s="2" t="b">
         <f t="shared" si="6"/>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD43" s="2">
         <v>896</v>
@@ -7815,30 +7815,30 @@
         <v>2420.04</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ43" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK43" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL43" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM43" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C44" s="2" t="b">
         <f t="shared" si="6"/>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD44" s="2">
         <v>810</v>
@@ -7951,30 +7951,30 @@
         <v>2187.16</v>
       </c>
       <c r="AF44" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ44" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK44" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL44" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM44" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C45" s="2" t="b">
         <f t="shared" si="6"/>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD45" s="2">
         <v>1201</v>
@@ -8087,30 +8087,30 @@
         <v>3243.48</v>
       </c>
       <c r="AF45" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG45" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ45" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK45" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL45" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM45" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C46" s="2" t="b">
         <f t="shared" si="6"/>
@@ -8214,7 +8214,7 @@
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD46" s="2">
         <v>1139</v>
@@ -8223,30 +8223,30 @@
         <v>3073.95</v>
       </c>
       <c r="AF46" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG46" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ46" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK46" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL46" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM46" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C47" s="2" t="b">
         <f t="shared" si="6"/>
@@ -8350,7 +8350,7 @@
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD47" s="2">
         <v>689</v>
@@ -8359,30 +8359,30 @@
         <v>1861.14</v>
       </c>
       <c r="AF47" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG47" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ47" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK47" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL47" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM47" s="2" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C48" s="2" t="b">
         <f t="shared" si="6"/>
@@ -8486,7 +8486,7 @@
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD48" s="2">
         <v>310</v>
@@ -8495,30 +8495,30 @@
         <v>836.49</v>
       </c>
       <c r="AF48" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG48" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ48" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK48" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL48" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM48" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C49" s="2" t="b">
         <f t="shared" si="6"/>
@@ -8622,7 +8622,7 @@
       </c>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD49" s="2">
         <v>206</v>
@@ -8631,30 +8631,30 @@
         <v>557.04</v>
       </c>
       <c r="AF49" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ49" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK49" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL49" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM49" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C50" s="2" t="b">
         <f t="shared" si="6"/>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD50" s="2">
         <v>55</v>
@@ -8767,30 +8767,30 @@
         <v>147.18</v>
       </c>
       <c r="AF50" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ50" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AK50" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL50" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM50" s="2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C51" s="2" t="b">
         <f t="shared" si="6"/>
@@ -8894,7 +8894,7 @@
       </c>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD51" s="2">
         <v>55</v>
@@ -8903,30 +8903,30 @@
         <v>147.18</v>
       </c>
       <c r="AF51" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ51" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AK51" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL51" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM51" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C52" s="2" t="b">
         <f t="shared" si="6"/>
@@ -9030,7 +9030,7 @@
       </c>
       <c r="AB52" s="2"/>
       <c r="AC52" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD52" s="2">
         <v>118</v>
@@ -9039,30 +9039,30 @@
         <v>318.57</v>
       </c>
       <c r="AF52" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ52" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AK52" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL52" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM52" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C53" s="2" t="b">
         <f t="shared" si="6"/>
@@ -9166,7 +9166,7 @@
       </c>
       <c r="AB53" s="2"/>
       <c r="AC53" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD53" s="2">
         <v>55</v>
@@ -9175,30 +9175,30 @@
         <v>147.18</v>
       </c>
       <c r="AF53" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG53" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ53" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AK53" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL53" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM53" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C54" s="2" t="b">
         <f t="shared" si="6"/>
@@ -9302,7 +9302,7 @@
       </c>
       <c r="AB54" s="2"/>
       <c r="AC54" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD54" s="2">
         <v>93</v>
@@ -9311,30 +9311,30 @@
         <v>251.51</v>
       </c>
       <c r="AF54" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ54" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AK54" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL54" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM54" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C55" s="2" t="b">
         <f t="shared" si="6"/>
@@ -9438,7 +9438,7 @@
       </c>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD55" s="2">
         <v>93</v>
@@ -9447,30 +9447,30 @@
         <v>251.51</v>
       </c>
       <c r="AF55" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG55" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ55" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AK55" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL55" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM55" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C56" s="2" t="b">
         <f t="shared" si="6"/>
@@ -9574,7 +9574,7 @@
       </c>
       <c r="AB56" s="2"/>
       <c r="AC56" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD56" s="2">
         <v>86</v>
@@ -9583,30 +9583,30 @@
         <v>232.88</v>
       </c>
       <c r="AF56" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG56" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ56" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AK56" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL56" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM56" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C57" s="2" t="b">
         <f t="shared" si="6"/>
@@ -9710,7 +9710,7 @@
       </c>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD57" s="2">
         <v>125</v>
@@ -9719,30 +9719,30 @@
         <v>337.2</v>
       </c>
       <c r="AF57" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ57" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AK57" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL57" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM57" s="2" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C58" s="2" t="b">
         <f t="shared" si="6"/>
@@ -9846,7 +9846,7 @@
       </c>
       <c r="AB58" s="2"/>
       <c r="AC58" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD58" s="2">
         <v>1793</v>
@@ -9855,30 +9855,30 @@
         <v>4840.07</v>
       </c>
       <c r="AF58" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ58" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK58" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL58" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM58" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C59" s="2" t="b">
         <f t="shared" si="6"/>
@@ -9982,7 +9982,7 @@
       </c>
       <c r="AB59" s="2"/>
       <c r="AC59" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD59" s="2">
         <v>1103</v>
@@ -9991,30 +9991,30 @@
         <v>2977.07</v>
       </c>
       <c r="AF59" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG59" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ59" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK59" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL59" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM59" s="2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C60" s="2" t="b">
         <f t="shared" si="6"/>
@@ -10118,7 +10118,7 @@
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD60" s="2">
         <v>1103</v>
@@ -10127,30 +10127,30 @@
         <v>2977.07</v>
       </c>
       <c r="AF60" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG60" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ60" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK60" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL60" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM60" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C61" s="2" t="b">
         <f t="shared" si="6"/>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="AB61" s="2"/>
       <c r="AC61" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD61" s="2">
         <v>1793</v>
@@ -10263,30 +10263,30 @@
         <v>4840.07</v>
       </c>
       <c r="AF61" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG61" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ61" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK61" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL61" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM61" s="2" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C62" s="2" t="b">
         <f t="shared" si="6"/>
@@ -10390,7 +10390,7 @@
       </c>
       <c r="AB62" s="2"/>
       <c r="AC62" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD62" s="2">
         <v>1361</v>
@@ -10399,30 +10399,30 @@
         <v>3675.7</v>
       </c>
       <c r="AF62" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG62" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ62" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK62" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL62" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM62" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C63" s="2" t="b">
         <f t="shared" si="6"/>
@@ -10526,7 +10526,7 @@
       </c>
       <c r="AB63" s="2"/>
       <c r="AC63" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD63" s="2">
         <v>2236</v>
@@ -10535,30 +10535,30 @@
         <v>6037.98</v>
       </c>
       <c r="AF63" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG63" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ63" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK63" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL63" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM63" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C64" s="2" t="b">
         <f t="shared" si="6"/>
@@ -10662,7 +10662,7 @@
       </c>
       <c r="AB64" s="2"/>
       <c r="AC64" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD64" s="2">
         <v>1793</v>
@@ -10671,30 +10671,30 @@
         <v>4840.07</v>
       </c>
       <c r="AF64" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG64" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ64" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK64" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL64" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM64" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C65" s="2" t="b">
         <f t="shared" si="6"/>
@@ -10798,7 +10798,7 @@
       </c>
       <c r="AB65" s="2"/>
       <c r="AC65" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD65" s="2">
         <v>1103</v>
@@ -10807,30 +10807,30 @@
         <v>2977.07</v>
       </c>
       <c r="AF65" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG65" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ65" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK65" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL65" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM65" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C66" s="2" t="b">
         <f t="shared" si="6"/>
@@ -10934,7 +10934,7 @@
       </c>
       <c r="AB66" s="2"/>
       <c r="AC66" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD66" s="2">
         <v>2034</v>
@@ -10943,30 +10943,30 @@
         <v>5492.12</v>
       </c>
       <c r="AF66" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG66" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ66" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK66" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL66" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM66" s="2" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C67" s="2" t="b">
         <f t="shared" ref="C67:C130" si="49">IF(OR(D67=TRUE,E67=TRUE,F67=TRUE),FALSE,TRUE)</f>
@@ -11070,7 +11070,7 @@
       </c>
       <c r="AB67" s="2"/>
       <c r="AC67" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD67" s="2">
         <v>1344</v>
@@ -11079,30 +11079,30 @@
         <v>3629.12</v>
       </c>
       <c r="AF67" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG67" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ67" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK67" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL67" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM67" s="2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C68" s="2" t="b">
         <f t="shared" si="49"/>
@@ -11206,7 +11206,7 @@
       </c>
       <c r="AB68" s="2"/>
       <c r="AC68" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD68" s="2">
         <v>206</v>
@@ -11215,30 +11215,30 @@
         <v>557.04</v>
       </c>
       <c r="AF68" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG68" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ68" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK68" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL68" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM68" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C69" s="2" t="b">
         <f t="shared" si="49"/>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="AB69" s="2"/>
       <c r="AC69" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD69" s="2">
         <v>310</v>
@@ -11351,30 +11351,30 @@
         <v>836.49</v>
       </c>
       <c r="AF69" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG69" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ69" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK69" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL69" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM69" s="2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C70" s="2" t="b">
         <f t="shared" si="49"/>
@@ -11478,7 +11478,7 @@
       </c>
       <c r="AB70" s="2"/>
       <c r="AC70" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD70" s="2">
         <v>299</v>
@@ -11487,30 +11487,30 @@
         <v>808.54</v>
       </c>
       <c r="AF70" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG70" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ70" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK70" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL70" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM70" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C71" s="2" t="b">
         <f t="shared" si="49"/>
@@ -11614,7 +11614,7 @@
       </c>
       <c r="AB71" s="2"/>
       <c r="AC71" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD71" s="2">
         <v>403</v>
@@ -11623,30 +11623,30 @@
         <v>1087.99</v>
       </c>
       <c r="AF71" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG71" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ71" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK71" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL71" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM71" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C72" s="2" t="b">
         <f t="shared" si="49"/>
@@ -11750,7 +11750,7 @@
       </c>
       <c r="AB72" s="2"/>
       <c r="AC72" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD72" s="2">
         <v>373</v>
@@ -11759,30 +11759,30 @@
         <v>1006.02</v>
       </c>
       <c r="AF72" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG72" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ72" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK72" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL72" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM72" s="2" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C73" s="2" t="b">
         <f t="shared" si="49"/>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="AB73" s="2"/>
       <c r="AC73" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD73" s="2">
         <v>269</v>
@@ -11895,30 +11895,30 @@
         <v>726.57</v>
       </c>
       <c r="AF73" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG73" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ73" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK73" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL73" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM73" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C74" s="2" t="b">
         <f t="shared" si="49"/>
@@ -12022,7 +12022,7 @@
       </c>
       <c r="AB74" s="2"/>
       <c r="AC74" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD74" s="2">
         <v>1138</v>
@@ -12031,30 +12031,30 @@
         <v>3072.09</v>
       </c>
       <c r="AF74" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG74" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ74" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK74" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL74" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM74" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C75" s="2" t="b">
         <f t="shared" si="49"/>
@@ -12158,7 +12158,7 @@
       </c>
       <c r="AB75" s="2"/>
       <c r="AC75" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD75" s="2">
         <v>793</v>
@@ -12167,30 +12167,30 @@
         <v>2140.59</v>
       </c>
       <c r="AF75" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG75" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ75" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK75" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL75" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM75" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="C76" s="2" t="b">
         <f t="shared" si="49"/>
@@ -12285,8 +12285,7 @@
         <v>0</v>
       </c>
       <c r="Z76" s="2" t="b">
-        <f t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="2" t="str">
         <f t="shared" si="61"/>
@@ -12294,7 +12293,7 @@
       </c>
       <c r="AB76" s="2"/>
       <c r="AC76" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD76" s="2">
         <v>1414</v>
@@ -12303,30 +12302,30 @@
         <v>3817.29</v>
       </c>
       <c r="AF76" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG76" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ76" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK76" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL76" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM76" s="2" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C77" s="2" t="b">
         <f t="shared" si="49"/>
@@ -12421,8 +12420,7 @@
         <v>0</v>
       </c>
       <c r="Z77" s="2" t="b">
-        <f t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA77" s="2" t="str">
         <f t="shared" si="61"/>
@@ -12430,7 +12428,7 @@
       </c>
       <c r="AB77" s="2"/>
       <c r="AC77" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD77" s="2">
         <v>1069</v>
@@ -12439,30 +12437,30 @@
         <v>2885.79</v>
       </c>
       <c r="AF77" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG77" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ77" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK77" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL77" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM77" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C78" s="2" t="b">
         <f t="shared" si="49"/>
@@ -12566,7 +12564,7 @@
       </c>
       <c r="AB78" s="2"/>
       <c r="AC78" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD78" s="2">
         <v>624</v>
@@ -12575,30 +12573,30 @@
         <v>1684.15</v>
       </c>
       <c r="AF78" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG78" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ78" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK78" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL78" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM78" s="2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C79" s="2" t="b">
         <f t="shared" si="49"/>
@@ -12702,7 +12700,7 @@
       </c>
       <c r="AB79" s="2"/>
       <c r="AC79" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD79" s="2">
         <v>451</v>
@@ -12711,30 +12709,30 @@
         <v>1218.4000000000001</v>
       </c>
       <c r="AF79" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG79" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ79" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK79" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL79" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM79" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C80" s="2" t="b">
         <f t="shared" si="49"/>
@@ -12838,7 +12836,7 @@
       </c>
       <c r="AB80" s="2"/>
       <c r="AC80" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD80" s="2">
         <v>862</v>
@@ -12847,27 +12845,27 @@
         <v>2326.89</v>
       </c>
       <c r="AF80" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG80" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ80" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AL80" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM80" s="2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C81" s="2" t="b">
         <f t="shared" si="49"/>
@@ -12971,30 +12969,30 @@
       </c>
       <c r="AB81" s="2"/>
       <c r="AC81" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD81" s="2">
         <v>1087</v>
       </c>
       <c r="AF81" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG81" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ81" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AL81" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C82" s="2" t="b">
         <f t="shared" si="49"/>
@@ -13098,7 +13096,7 @@
       </c>
       <c r="AB82" s="2"/>
       <c r="AC82" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD82" s="2">
         <v>255</v>
@@ -13107,33 +13105,33 @@
         <v>687.45</v>
       </c>
       <c r="AF82" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG82" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AI82" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ82" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK82" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="AL82" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM82" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C83" s="2" t="b">
         <f t="shared" si="49"/>
@@ -13237,7 +13235,7 @@
       </c>
       <c r="AB83" s="2"/>
       <c r="AC83" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD83" s="2">
         <v>206</v>
@@ -13246,33 +13244,33 @@
         <v>557.04</v>
       </c>
       <c r="AF83" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG83" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AI83" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ83" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK83" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="AL83" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM83" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C84" s="2" t="b">
         <f t="shared" si="49"/>
@@ -13376,7 +13374,7 @@
       </c>
       <c r="AB84" s="2"/>
       <c r="AC84" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD84" s="2">
         <v>310</v>
@@ -13385,33 +13383,33 @@
         <v>836.49</v>
       </c>
       <c r="AF84" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG84" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AI84" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ84" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK84" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="AL84" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM84" s="2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C85" s="2" t="b">
         <f t="shared" si="49"/>
@@ -13515,7 +13513,7 @@
       </c>
       <c r="AB85" s="2"/>
       <c r="AC85" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD85" s="2">
         <v>124</v>
@@ -13524,33 +13522,33 @@
         <v>333.48</v>
       </c>
       <c r="AF85" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG85" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AI85" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ85" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AK85" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="AL85" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM85" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:39" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C86" s="2" t="b">
         <f t="shared" si="49"/>
@@ -13654,7 +13652,7 @@
       </c>
       <c r="AB86" s="2"/>
       <c r="AC86" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD86" s="2">
         <v>186</v>
@@ -13663,33 +13661,33 @@
         <v>501.15</v>
       </c>
       <c r="AF86" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG86" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AI86" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ86" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AK86" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="AL86" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM86" s="2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="87" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:39" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C87" s="2" t="b">
         <f t="shared" si="49"/>
@@ -13793,7 +13791,7 @@
       </c>
       <c r="AB87" s="2"/>
       <c r="AC87" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD87" s="2">
         <v>1069</v>
@@ -13802,30 +13800,30 @@
         <v>2885.79</v>
       </c>
       <c r="AF87" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AG87" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ87" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK87" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL87" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM87" s="2" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:39" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C88" s="2" t="b">
         <f t="shared" si="49"/>
@@ -13929,7 +13927,7 @@
       </c>
       <c r="AB88" s="2"/>
       <c r="AC88" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD88" s="2">
         <v>758</v>
@@ -13938,30 +13936,30 @@
         <v>2047.44</v>
       </c>
       <c r="AF88" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AG88" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ88" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK88" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL88" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM88" s="2" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="C89" s="2" t="b">
         <f t="shared" si="49"/>
@@ -14065,7 +14063,7 @@
       </c>
       <c r="AB89" s="2"/>
       <c r="AC89" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD89" s="2">
         <v>342</v>
@@ -14074,30 +14072,30 @@
         <v>922.19</v>
       </c>
       <c r="AF89" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AG89" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ89" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK89" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL89" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM89" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
-    <row r="90" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:39" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="C90" s="2" t="b">
         <f t="shared" si="49"/>
@@ -14201,7 +14199,7 @@
       </c>
       <c r="AB90" s="2"/>
       <c r="AC90" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD90" s="2">
         <v>238</v>
@@ -14210,30 +14208,30 @@
         <v>642.74</v>
       </c>
       <c r="AF90" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AG90" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ90" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK90" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL90" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM90" s="2" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="91" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:39" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C91" s="2" t="b">
         <f t="shared" si="49"/>
@@ -14337,7 +14335,7 @@
       </c>
       <c r="AB91" s="2"/>
       <c r="AC91" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD91" s="2">
         <v>114</v>
@@ -14346,30 +14344,30 @@
         <v>307.39999999999998</v>
       </c>
       <c r="AF91" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AG91" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="AJ91" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK91" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL91" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM91" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:39" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="C92" s="2" t="b">
         <f t="shared" si="49"/>
@@ -14473,7 +14471,7 @@
       </c>
       <c r="AB92" s="2"/>
       <c r="AC92" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD92" s="2">
         <v>79</v>
@@ -14482,30 +14480,30 @@
         <v>214.25</v>
       </c>
       <c r="AF92" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AG92" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="AJ92" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK92" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL92" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM92" s="2" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="93" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:39" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="C93" s="2" t="b">
         <f t="shared" si="49"/>
@@ -14609,7 +14607,7 @@
       </c>
       <c r="AB93" s="2"/>
       <c r="AC93" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD93" s="2">
         <v>228</v>
@@ -14618,30 +14616,30 @@
         <v>614.79</v>
       </c>
       <c r="AF93" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AG93" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="AJ93" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK93" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL93" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM93" s="2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="94" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:39" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="C94" s="2" t="b">
         <f t="shared" si="49"/>
@@ -14745,7 +14743,7 @@
       </c>
       <c r="AB94" s="2"/>
       <c r="AC94" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD94" s="2">
         <v>159</v>
@@ -14754,30 +14752,30 @@
         <v>428.49</v>
       </c>
       <c r="AF94" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AG94" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="AJ94" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK94" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL94" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM94" s="2" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
-    <row r="95" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:39" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C95" s="2" t="b">
         <f t="shared" si="49"/>
@@ -14881,7 +14879,7 @@
       </c>
       <c r="AB95" s="2"/>
       <c r="AC95" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD95" s="2">
         <v>300</v>
@@ -14890,30 +14888,30 @@
         <v>810.41</v>
       </c>
       <c r="AF95" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG95" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ95" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK95" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL95" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM95" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="96" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:39" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C96" s="2" t="b">
         <f t="shared" si="49"/>
@@ -15017,7 +15015,7 @@
       </c>
       <c r="AB96" s="2"/>
       <c r="AC96" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD96" s="2">
         <v>186</v>
@@ -15026,30 +15024,30 @@
         <v>501.15</v>
       </c>
       <c r="AF96" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG96" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ96" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK96" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL96" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM96" s="2" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="97" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:39" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C97" s="2" t="b">
         <f t="shared" si="49"/>
@@ -15153,7 +15151,7 @@
       </c>
       <c r="AB97" s="2"/>
       <c r="AC97" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD97" s="2">
         <v>620</v>
@@ -15162,30 +15160,30 @@
         <v>1674.84</v>
       </c>
       <c r="AF97" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG97" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ97" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK97" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL97" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM97" s="2" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
-    <row r="98" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:39" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="C98" s="2" t="b">
         <f t="shared" si="49"/>
@@ -15289,7 +15287,7 @@
       </c>
       <c r="AB98" s="2"/>
       <c r="AC98" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD98" s="2">
         <v>507</v>
@@ -15298,30 +15296,30 @@
         <v>1369.31</v>
       </c>
       <c r="AF98" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG98" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ98" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK98" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL98" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM98" s="2" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="99" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:39" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="C99" s="2" t="b">
         <f t="shared" si="49"/>
@@ -15425,7 +15423,7 @@
       </c>
       <c r="AB99" s="2"/>
       <c r="AC99" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD99" s="2">
         <v>896</v>
@@ -15434,36 +15432,36 @@
         <v>2420.04</v>
       </c>
       <c r="AF99" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG99" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AH99" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AI99" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ99" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK99" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL99" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM99" s="2" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="100" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:39" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C100" s="2" t="b">
         <f t="shared" si="49"/>
@@ -15567,7 +15565,7 @@
       </c>
       <c r="AB100" s="2"/>
       <c r="AC100" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD100" s="2">
         <v>551</v>
@@ -15576,30 +15574,30 @@
         <v>1488.54</v>
       </c>
       <c r="AF100" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG100" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ100" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK100" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL100" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM100" s="2" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="101" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:39" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C101" s="2" t="b">
         <f t="shared" si="49"/>
@@ -15703,7 +15701,7 @@
       </c>
       <c r="AB101" s="2"/>
       <c r="AC101" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD101" s="2">
         <v>1138</v>
@@ -15712,30 +15710,30 @@
         <v>3072.09</v>
       </c>
       <c r="AF101" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG101" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ101" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK101" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL101" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM101" s="2" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="102" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:39" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C102" s="2" t="b">
         <f t="shared" si="49"/>
@@ -15839,7 +15837,7 @@
       </c>
       <c r="AB102" s="2"/>
       <c r="AC102" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD102" s="2">
         <v>793</v>
@@ -15848,30 +15846,30 @@
         <v>2140.59</v>
       </c>
       <c r="AF102" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG102" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ102" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK102" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL102" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM102" s="2" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="103" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:39" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C103" s="2" t="b">
         <f t="shared" si="49"/>
@@ -15975,7 +15973,7 @@
       </c>
       <c r="AB103" s="2"/>
       <c r="AC103" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD103" s="2">
         <v>7590</v>
@@ -15984,30 +15982,30 @@
         <v>20493</v>
       </c>
       <c r="AF103" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG103" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ103" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK103" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL103" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AM103" s="2" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="104" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:39" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C104" s="2" t="b">
         <f t="shared" si="49"/>
@@ -16111,7 +16109,7 @@
       </c>
       <c r="AB104" s="2"/>
       <c r="AC104" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD104" s="2">
         <v>896</v>
@@ -16120,30 +16118,30 @@
         <v>2420.04</v>
       </c>
       <c r="AF104" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG104" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ104" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK104" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL104" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM104" s="2" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="105" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:39" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C105" s="2" t="b">
         <f t="shared" si="49"/>
@@ -16247,7 +16245,7 @@
       </c>
       <c r="AB105" s="2"/>
       <c r="AC105" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD105" s="2">
         <v>551</v>
@@ -16256,30 +16254,30 @@
         <v>1488.54</v>
       </c>
       <c r="AF105" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG105" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ105" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK105" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL105" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM105" s="2" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="106" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:39" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C106" s="2" t="b">
         <f t="shared" si="49"/>
@@ -16383,7 +16381,7 @@
       </c>
       <c r="AB106" s="2"/>
       <c r="AC106" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD106" s="2">
         <v>448</v>
@@ -16392,30 +16390,30 @@
         <v>1210.95</v>
       </c>
       <c r="AF106" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG106" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ106" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK106" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL106" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM106" s="2" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="107" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:39" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C107" s="2" t="b">
         <f t="shared" si="49"/>
@@ -16519,7 +16517,7 @@
       </c>
       <c r="AB107" s="2"/>
       <c r="AC107" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD107" s="2">
         <v>276</v>
@@ -16528,30 +16526,30 @@
         <v>745.2</v>
       </c>
       <c r="AF107" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG107" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ107" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK107" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL107" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM107" s="2" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="108" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:39" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="C108" s="2" t="b">
         <f t="shared" si="49"/>
@@ -16655,7 +16653,7 @@
       </c>
       <c r="AB108" s="2"/>
       <c r="AC108" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD108" s="2">
         <v>300</v>
@@ -16664,30 +16662,30 @@
         <v>810.41</v>
       </c>
       <c r="AF108" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG108" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ108" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK108" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL108" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AM108" s="2" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="109" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:39" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C109" s="2" t="b">
         <f t="shared" si="49"/>
@@ -16791,7 +16789,7 @@
       </c>
       <c r="AB109" s="2"/>
       <c r="AC109" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD109" s="2">
         <v>186</v>
@@ -16800,30 +16798,30 @@
         <v>501.15</v>
       </c>
       <c r="AF109" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG109" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ109" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK109" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL109" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AM109" s="2" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="110" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:39" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C110" s="2" t="b">
         <f t="shared" si="49"/>
@@ -16927,7 +16925,7 @@
       </c>
       <c r="AB110" s="2"/>
       <c r="AC110" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD110" s="2">
         <v>896</v>
@@ -16936,30 +16934,30 @@
         <v>2420.04</v>
       </c>
       <c r="AF110" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG110" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ110" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK110" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL110" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM110" s="2" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
-    <row r="111" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:39" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C111" s="2" t="b">
         <f t="shared" si="49"/>
@@ -17063,7 +17061,7 @@
       </c>
       <c r="AB111" s="2"/>
       <c r="AC111" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD111" s="2">
         <v>551</v>
@@ -17072,30 +17070,30 @@
         <v>1488.54</v>
       </c>
       <c r="AF111" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG111" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ111" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK111" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL111" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM111" s="2" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="112" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:39" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C112" s="2" t="b">
         <f t="shared" si="49"/>
@@ -17199,7 +17197,7 @@
       </c>
       <c r="AB112" s="2"/>
       <c r="AC112" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD112" s="2">
         <v>7590</v>
@@ -17208,30 +17206,30 @@
         <v>20493</v>
       </c>
       <c r="AF112" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG112" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ112" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK112" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL112" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AM112" s="2" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="113" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:39" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C113" s="2" t="b">
         <f t="shared" si="49"/>
@@ -17335,7 +17333,7 @@
       </c>
       <c r="AB113" s="2"/>
       <c r="AC113" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD113" s="2">
         <v>2759</v>
@@ -17344,30 +17342,30 @@
         <v>7450.14</v>
       </c>
       <c r="AF113" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG113" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ113" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK113" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL113" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM113" s="2" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="114" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:39" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="C114" s="2" t="b">
         <f t="shared" si="49"/>
@@ -17471,7 +17469,7 @@
       </c>
       <c r="AB114" s="2"/>
       <c r="AC114" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD114" s="2">
         <v>1724</v>
@@ -17480,30 +17478,30 @@
         <v>4655.6400000000003</v>
       </c>
       <c r="AF114" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG114" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ114" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK114" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL114" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM114" s="2" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
-    <row r="115" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:39" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C115" s="2" t="b">
         <f t="shared" si="49"/>
@@ -17607,7 +17605,7 @@
       </c>
       <c r="AB115" s="2"/>
       <c r="AC115" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD115" s="2">
         <v>1380</v>
@@ -17616,30 +17614,30 @@
         <v>3726</v>
       </c>
       <c r="AF115" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG115" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ115" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK115" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL115" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM115" s="2" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
-    <row r="116" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:39" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="C116" s="2" t="b">
         <f t="shared" si="49"/>
@@ -17743,7 +17741,7 @@
       </c>
       <c r="AB116" s="2"/>
       <c r="AC116" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD116" s="2">
         <v>862</v>
@@ -17752,30 +17750,30 @@
         <v>2328.75</v>
       </c>
       <c r="AF116" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG116" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ116" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK116" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL116" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM116" s="2" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
-    <row r="117" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:39" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C117" s="2" t="b">
         <f t="shared" si="49"/>
@@ -17879,7 +17877,7 @@
       </c>
       <c r="AB117" s="2"/>
       <c r="AC117" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD117" s="2">
         <v>3605</v>
@@ -17888,30 +17886,30 @@
         <v>9732.31</v>
       </c>
       <c r="AF117" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG117" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ117" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK117" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL117" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM117" s="2" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
-    <row r="118" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:39" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="C118" s="2" t="b">
         <f t="shared" si="49"/>
@@ -18015,7 +18013,7 @@
       </c>
       <c r="AB118" s="2"/>
       <c r="AC118" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD118" s="2">
         <v>2570</v>
@@ -18024,30 +18022,30 @@
         <v>6937.81</v>
       </c>
       <c r="AF118" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG118" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ118" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK118" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL118" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM118" s="2" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
-    <row r="119" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:39" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="C119" s="2" t="b">
         <f t="shared" si="49"/>
@@ -18151,7 +18149,7 @@
       </c>
       <c r="AB119" s="2"/>
       <c r="AC119" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD119" s="2">
         <v>1483</v>
@@ -18160,30 +18158,30 @@
         <v>4003.59</v>
       </c>
       <c r="AF119" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG119" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ119" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK119" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL119" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM119" s="2" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
-    <row r="120" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:39" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C120" s="2" t="b">
         <f t="shared" si="49"/>
@@ -18287,7 +18285,7 @@
       </c>
       <c r="AB120" s="2"/>
       <c r="AC120" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD120" s="2">
         <v>1207</v>
@@ -18296,30 +18294,30 @@
         <v>3258.39</v>
       </c>
       <c r="AF120" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG120" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ120" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK120" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL120" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM120" s="2" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
-    <row r="121" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:39" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C121" s="2" t="b">
         <f t="shared" si="49"/>
@@ -18423,7 +18421,7 @@
       </c>
       <c r="AB121" s="2"/>
       <c r="AC121" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD121" s="2">
         <v>620</v>
@@ -18432,30 +18430,30 @@
         <v>1674.84</v>
       </c>
       <c r="AF121" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG121" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ121" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK121" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL121" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM121" s="2" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
-    <row r="122" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:39" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="C122" s="2" t="b">
         <f t="shared" si="49"/>
@@ -18559,7 +18557,7 @@
       </c>
       <c r="AB122" s="2"/>
       <c r="AC122" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD122" s="2">
         <v>507</v>
@@ -18568,30 +18566,30 @@
         <v>1369.31</v>
       </c>
       <c r="AF122" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG122" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ122" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK122" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL122" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM122" s="2" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="123" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:39" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C123" s="2" t="b">
         <f t="shared" si="49"/>
@@ -18695,7 +18693,7 @@
       </c>
       <c r="AB123" s="2"/>
       <c r="AC123" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD123" s="2">
         <v>275</v>
@@ -18704,27 +18702,27 @@
         <v>743.34</v>
       </c>
       <c r="AF123" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG123" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ123" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AL123" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM123" s="2" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
-    <row r="124" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:39" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C124" s="2" t="b">
         <f t="shared" si="49"/>
@@ -18828,30 +18826,30 @@
       </c>
       <c r="AB124" s="2"/>
       <c r="AC124" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD124" s="2">
         <v>538</v>
       </c>
       <c r="AF124" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG124" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ124" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AL124" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:39" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C125" s="2" t="b">
         <f t="shared" si="49"/>
@@ -18955,7 +18953,7 @@
       </c>
       <c r="AB125" s="2"/>
       <c r="AC125" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD125" s="2">
         <v>2759</v>
@@ -18964,30 +18962,30 @@
         <v>7450.14</v>
       </c>
       <c r="AF125" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG125" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ125" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK125" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL125" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM125" s="2" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
-    <row r="126" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:39" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="C126" s="2" t="b">
         <f t="shared" si="49"/>
@@ -19091,7 +19089,7 @@
       </c>
       <c r="AB126" s="2"/>
       <c r="AC126" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD126" s="2">
         <v>1724</v>
@@ -19100,30 +19098,30 @@
         <v>4655.6400000000003</v>
       </c>
       <c r="AF126" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG126" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ126" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK126" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL126" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM126" s="2" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
-    <row r="127" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:39" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="C127" s="2" t="b">
         <f t="shared" si="49"/>
@@ -19227,7 +19225,7 @@
       </c>
       <c r="AB127" s="2"/>
       <c r="AC127" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD127" s="2">
         <v>1380</v>
@@ -19236,30 +19234,30 @@
         <v>3726</v>
       </c>
       <c r="AF127" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG127" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ127" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK127" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL127" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM127" s="2" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
-    <row r="128" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:39" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="C128" s="2" t="b">
         <f t="shared" si="49"/>
@@ -19363,7 +19361,7 @@
       </c>
       <c r="AB128" s="2"/>
       <c r="AC128" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD128" s="2">
         <v>862</v>
@@ -19372,30 +19370,30 @@
         <v>2328.75</v>
       </c>
       <c r="AF128" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG128" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ128" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK128" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL128" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM128" s="2" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="129" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:39" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="C129" s="2" t="b">
         <f t="shared" si="49"/>
@@ -19499,7 +19497,7 @@
       </c>
       <c r="AB129" s="2"/>
       <c r="AC129" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD129" s="2">
         <v>4691</v>
@@ -19508,30 +19506,30 @@
         <v>12666.54</v>
       </c>
       <c r="AF129" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG129" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ129" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK129" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL129" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM129" s="2" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="130" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:39" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="C130" s="2" t="b">
         <f t="shared" si="49"/>
@@ -19635,7 +19633,7 @@
       </c>
       <c r="AB130" s="2"/>
       <c r="AC130" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD130" s="2">
         <v>3863</v>
@@ -19644,30 +19642,30 @@
         <v>10430.94</v>
       </c>
       <c r="AF130" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG130" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ130" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK130" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL130" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM130" s="2" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
-    <row r="131" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:39" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="C131" s="2" t="b">
         <f t="shared" ref="C131:C157" si="76">IF(OR(D131=TRUE,E131=TRUE,F131=TRUE),FALSE,TRUE)</f>
@@ -19771,7 +19769,7 @@
       </c>
       <c r="AB131" s="2"/>
       <c r="AC131" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD131" s="2">
         <v>3605</v>
@@ -19780,30 +19778,30 @@
         <v>9732.31</v>
       </c>
       <c r="AF131" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG131" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ131" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK131" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL131" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM131" s="2" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
-    <row r="132" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:39" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C132" s="2" t="b">
         <f t="shared" si="76"/>
@@ -19907,7 +19905,7 @@
       </c>
       <c r="AB132" s="2"/>
       <c r="AC132" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD132" s="2">
         <v>2570</v>
@@ -19916,30 +19914,30 @@
         <v>6937.81</v>
       </c>
       <c r="AF132" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG132" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ132" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK132" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL132" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM132" s="2" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
-    <row r="133" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:39" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C133" s="2" t="b">
         <f t="shared" si="76"/>
@@ -20043,7 +20041,7 @@
       </c>
       <c r="AB133" s="2"/>
       <c r="AC133" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD133" s="2">
         <v>4035</v>
@@ -20052,30 +20050,30 @@
         <v>10894.82</v>
       </c>
       <c r="AF133" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG133" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ133" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK133" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL133" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM133" s="2" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
-    <row r="134" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:39" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="C134" s="2" t="b">
         <f t="shared" si="76"/>
@@ -20179,7 +20177,7 @@
       </c>
       <c r="AB134" s="2"/>
       <c r="AC134" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD134" s="2">
         <v>3000</v>
@@ -20188,30 +20186,30 @@
         <v>8100.32</v>
       </c>
       <c r="AF134" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG134" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ134" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK134" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL134" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM134" s="2" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="135" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:39" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="C135" s="2" t="b">
         <f t="shared" si="76"/>
@@ -20315,7 +20313,7 @@
       </c>
       <c r="AB135" s="2"/>
       <c r="AC135" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD135" s="2">
         <v>1977</v>
@@ -20324,30 +20322,30 @@
         <v>5337.5</v>
       </c>
       <c r="AF135" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG135" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ135" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK135" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL135" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM135" s="2" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
-    <row r="136" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:39" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="C136" s="2" t="b">
         <f t="shared" si="76"/>
@@ -20451,7 +20449,7 @@
       </c>
       <c r="AB136" s="2"/>
       <c r="AC136" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD136" s="2">
         <v>1459</v>
@@ -20460,30 +20458,30 @@
         <v>3940.25</v>
       </c>
       <c r="AF136" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG136" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ136" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK136" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL136" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM136" s="2" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
-    <row r="137" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:39" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="C137" s="2" t="b">
         <f t="shared" si="76"/>
@@ -20587,7 +20585,7 @@
       </c>
       <c r="AB137" s="2"/>
       <c r="AC137" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD137" s="2">
         <v>1138</v>
@@ -20596,30 +20594,30 @@
         <v>3072.09</v>
       </c>
       <c r="AF137" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG137" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ137" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK137" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL137" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM137" s="2" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
-    <row r="138" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:39" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="C138" s="2" t="b">
         <f t="shared" si="76"/>
@@ -20723,7 +20721,7 @@
       </c>
       <c r="AB138" s="2"/>
       <c r="AC138" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD138" s="2">
         <v>793</v>
@@ -20732,30 +20730,30 @@
         <v>2140.59</v>
       </c>
       <c r="AF138" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG138" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ138" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK138" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL138" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM138" s="2" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
-    <row r="139" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:39" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="C139" s="2" t="b">
         <f t="shared" si="76"/>
@@ -20859,7 +20857,7 @@
       </c>
       <c r="AB139" s="2"/>
       <c r="AC139" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD139" s="2">
         <v>624</v>
@@ -20868,30 +20866,30 @@
         <v>1684.15</v>
       </c>
       <c r="AF139" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG139" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ139" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK139" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL139" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM139" s="2" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
-    <row r="140" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:39" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C140" s="2" t="b">
         <f t="shared" si="76"/>
@@ -20995,7 +20993,7 @@
       </c>
       <c r="AB140" s="2"/>
       <c r="AC140" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD140" s="2">
         <v>451</v>
@@ -21004,30 +21002,30 @@
         <v>1218.4000000000001</v>
       </c>
       <c r="AF140" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG140" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ140" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK140" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL140" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM140" s="2" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
-    <row r="141" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:39" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="C141" s="2" t="b">
         <f t="shared" si="76"/>
@@ -21131,7 +21129,7 @@
       </c>
       <c r="AB141" s="2"/>
       <c r="AC141" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD141" s="2">
         <v>1977</v>
@@ -21140,30 +21138,30 @@
         <v>5337.5</v>
       </c>
       <c r="AF141" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG141" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ141" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK141" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL141" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM141" s="2" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
-    <row r="142" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:39" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="C142" s="2" t="b">
         <f t="shared" si="76"/>
@@ -21267,7 +21265,7 @@
       </c>
       <c r="AB142" s="2"/>
       <c r="AC142" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD142" s="2">
         <v>1459</v>
@@ -21276,30 +21274,30 @@
         <v>3940.25</v>
       </c>
       <c r="AF142" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG142" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ142" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK142" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL142" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AM142" s="2" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
-    <row r="143" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:39" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="C143" s="2" t="b">
         <f t="shared" si="76"/>
@@ -21403,7 +21401,7 @@
       </c>
       <c r="AB143" s="2"/>
       <c r="AC143" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD143" s="2">
         <v>620</v>
@@ -21412,30 +21410,30 @@
         <v>1674.84</v>
       </c>
       <c r="AF143" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG143" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ143" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK143" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL143" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AM143" s="2" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
-    <row r="144" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:39" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C144" s="2" t="b">
         <f t="shared" si="76"/>
@@ -21539,7 +21537,7 @@
       </c>
       <c r="AB144" s="2"/>
       <c r="AC144" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD144" s="2">
         <v>507</v>
@@ -21548,30 +21546,30 @@
         <v>1369.31</v>
       </c>
       <c r="AF144" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG144" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJ144" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK144" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL144" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AM144" s="2" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
-    <row r="145" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:39" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C145" s="2" t="b">
         <f t="shared" si="76"/>
@@ -21675,7 +21673,7 @@
       </c>
       <c r="AB145" s="2"/>
       <c r="AC145" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD145" s="2">
         <v>1138</v>
@@ -21684,30 +21682,30 @@
         <v>3072.09</v>
       </c>
       <c r="AF145" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG145" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ145" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK145" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL145" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM145" s="2" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
-    <row r="146" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:39" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C146" s="2" t="b">
         <f t="shared" si="76"/>
@@ -21811,7 +21809,7 @@
       </c>
       <c r="AB146" s="2"/>
       <c r="AC146" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD146" s="2">
         <v>793</v>
@@ -21820,30 +21818,30 @@
         <v>2140.59</v>
       </c>
       <c r="AF146" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AG146" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ146" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK146" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL146" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM146" s="2" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
-    <row r="147" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:39" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="C147" s="2" t="b">
         <f t="shared" si="76"/>
@@ -21947,7 +21945,7 @@
       </c>
       <c r="AB147" s="2"/>
       <c r="AC147" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD147" s="2">
         <v>241</v>
@@ -21956,30 +21954,30 @@
         <v>652.04999999999995</v>
       </c>
       <c r="AF147" s="2" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="AG147" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ147" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK147" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL147" s="2" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="AM147" s="2" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="148" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:39" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="C148" s="2" t="b">
         <f t="shared" si="76"/>
@@ -22083,7 +22081,7 @@
       </c>
       <c r="AB148" s="2"/>
       <c r="AC148" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD148" s="2">
         <v>121</v>
@@ -22092,30 +22090,30 @@
         <v>326.02999999999997</v>
       </c>
       <c r="AF148" s="2" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="AG148" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ148" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK148" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL148" s="2" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="AM148" s="2" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
-    <row r="149" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:39" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="C149" s="2" t="b">
         <f t="shared" si="76"/>
@@ -22219,7 +22217,7 @@
       </c>
       <c r="AB149" s="2"/>
       <c r="AC149" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD149" s="2">
         <v>845</v>
@@ -22228,30 +22226,30 @@
         <v>2282.1799999999998</v>
       </c>
       <c r="AF149" s="2" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="AG149" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ149" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK149" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL149" s="2" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="AM149" s="2" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
-    <row r="150" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:39" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="C150" s="2" t="b">
         <f t="shared" si="76"/>
@@ -22355,7 +22353,7 @@
       </c>
       <c r="AB150" s="2"/>
       <c r="AC150" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD150" s="2">
         <v>423</v>
@@ -22364,30 +22362,30 @@
         <v>1142.02</v>
       </c>
       <c r="AF150" s="2" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="AG150" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ150" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK150" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL150" s="2" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="AM150" s="2" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
-    <row r="151" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:39" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C151" s="2" t="b">
         <f t="shared" si="76"/>
@@ -22491,7 +22489,7 @@
       </c>
       <c r="AB151" s="2"/>
       <c r="AC151" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD151" s="2">
         <v>551</v>
@@ -22500,30 +22498,30 @@
         <v>1488.54</v>
       </c>
       <c r="AF151" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG151" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ151" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK151" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL151" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM151" s="2" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
-    <row r="152" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:39" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="C152" s="2" t="b">
         <f t="shared" si="76"/>
@@ -22627,7 +22625,7 @@
       </c>
       <c r="AB152" s="2"/>
       <c r="AC152" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD152" s="2">
         <v>276</v>
@@ -22636,30 +22634,30 @@
         <v>745.2</v>
       </c>
       <c r="AF152" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG152" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ152" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK152" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL152" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM152" s="2" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
-    <row r="153" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:39" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C153" s="2" t="b">
         <f t="shared" si="76"/>
@@ -22763,7 +22761,7 @@
       </c>
       <c r="AB153" s="2"/>
       <c r="AC153" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD153" s="2">
         <v>1722</v>
@@ -22772,30 +22770,30 @@
         <v>4648.1899999999996</v>
       </c>
       <c r="AF153" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG153" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ153" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK153" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL153" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM153" s="2" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
-    <row r="154" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:39" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C154" s="2" t="b">
         <f t="shared" si="76"/>
@@ -22899,7 +22897,7 @@
       </c>
       <c r="AB154" s="2"/>
       <c r="AC154" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD154" s="2">
         <v>186</v>
@@ -22908,30 +22906,30 @@
         <v>501.15</v>
       </c>
       <c r="AF154" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG154" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ154" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK154" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL154" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AM154" s="2" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="155" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:39" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="C155" s="2" t="b">
         <f t="shared" si="76"/>
@@ -23035,7 +23033,7 @@
       </c>
       <c r="AB155" s="2"/>
       <c r="AC155" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD155" s="2">
         <v>551</v>
@@ -23044,30 +23042,30 @@
         <v>1488.54</v>
       </c>
       <c r="AF155" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG155" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ155" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AK155" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AL155" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM155" s="2" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
-    <row r="156" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:39" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="C156" s="2" t="b">
         <f t="shared" si="76"/>
@@ -23171,7 +23169,7 @@
       </c>
       <c r="AB156" s="2"/>
       <c r="AC156" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD156" s="2">
         <v>1722</v>
@@ -23180,30 +23178,30 @@
         <v>4648.1899999999996</v>
       </c>
       <c r="AF156" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG156" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ156" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK156" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL156" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM156" s="2" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
-    <row r="157" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:39" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="C157" s="2" t="b">
         <f t="shared" si="76"/>
@@ -23307,7 +23305,7 @@
       </c>
       <c r="AB157" s="2"/>
       <c r="AC157" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD157" s="2">
         <v>861</v>
@@ -23316,867 +23314,867 @@
         <v>2325.02</v>
       </c>
       <c r="AF157" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG157" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ157" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AK157" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL157" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AM157" s="2" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="158" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:39" ht="15.75" customHeight="1"/>
+    <row r="159" spans="1:39" ht="15.75" customHeight="1"/>
+    <row r="160" spans="1:39" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:AM157" xr:uid="{27715D40-7855-4605-8396-838795ACCD8A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sku-maps/csv/xls/RHEL Data Breakdown.xlsx
+++ b/sku-maps/csv/xls/RHEL Data Breakdown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkelly\github\sku-calc\sku-maps\csv\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C86491F-AE5C-4752-807B-D20F55E9EBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E8B4951-F948-4872-9857-B5BC4F472C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="930" yWindow="1380" windowWidth="14265" windowHeight="15510" xr2:uid="{EEEE2005-B44C-4558-9957-76DB6E9A69D3}"/>
   </bookViews>
@@ -1994,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27715D40-7855-4605-8396-838795ACCD8A}">
   <dimension ref="A1:AM1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z78" sqref="Z78"/>
+    <sheetView tabSelected="1" topLeftCell="N114" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="2" t="str">
-        <f>IF(COUNTIF(U2:X2,"true")&gt;0,"TRUE",IF(OR(AND(ISNUMBER(SEARCH("satellite", B2)), ISNUMBER(SEARCH("with satellite", B2)=0)), AND(ISNUMBER(SEARCH("smart management", B2)), ISNUMBER(SEARCH("with smart management", B2)=0))), TRUE, FALSE))</f>
+        <f>IF(COUNTIF(U2:X2,"true")&gt;0,"TRUE")</f>
         <v>TRUE</v>
       </c>
       <c r="T2" s="2" t="b">
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="2" t="str">
-        <f t="shared" ref="S3:S66" si="19">IF(COUNTIF(U3:X3,"true")&gt;0,"TRUE",IF(OR(AND(ISNUMBER(SEARCH("satellite", B3)), ISNUMBER(SEARCH("with satellite", B3)=0)), AND(ISNUMBER(SEARCH("smart management", B3)), ISNUMBER(SEARCH("with smart management", B3)=0))), TRUE, FALSE))</f>
+        <f t="shared" ref="S3:S66" si="19">IF(COUNTIF(U3:X3,"true")&gt;0,"TRUE")</f>
         <v>TRUE</v>
       </c>
       <c r="T3" s="2" t="b">
@@ -11033,7 +11033,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="2" t="b">
-        <f t="shared" ref="S67:S130" si="59">IF(COUNTIF(U67:X67,"true")&gt;0,"TRUE",IF(OR(AND(ISNUMBER(SEARCH("satellite", B67)), ISNUMBER(SEARCH("with satellite", B67)=0)), AND(ISNUMBER(SEARCH("smart management", B67)), ISNUMBER(SEARCH("with smart management", B67)=0))), TRUE, FALSE))</f>
+        <f t="shared" ref="S67:S130" si="59">IF(COUNTIF(U67:X67,"true")&gt;0,"TRUE")</f>
         <v>0</v>
       </c>
       <c r="T67" s="2" t="b">
@@ -19732,7 +19732,7 @@
         <v>0</v>
       </c>
       <c r="S131" s="2" t="b">
-        <f t="shared" ref="S131:S157" si="92">IF(COUNTIF(U131:X131,"true")&gt;0,"TRUE",IF(OR(AND(ISNUMBER(SEARCH("satellite", B131)), ISNUMBER(SEARCH("with satellite", B131)=0)), AND(ISNUMBER(SEARCH("smart management", B131)), ISNUMBER(SEARCH("with smart management", B131)=0))), TRUE, FALSE))</f>
+        <f t="shared" ref="S131:S157" si="92">IF(COUNTIF(U131:X131,"true")&gt;0,"TRUE")</f>
         <v>0</v>
       </c>
       <c r="T131" s="2" t="b">

--- a/sku-maps/csv/xls/RHEL Data Breakdown.xlsx
+++ b/sku-maps/csv/xls/RHEL Data Breakdown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkelly\github\sku-calc\sku-maps\csv\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E8B4951-F948-4872-9857-B5BC4F472C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5043AAC-471A-4074-90B1-07E976A0457C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="930" yWindow="1380" windowWidth="14265" windowHeight="15510" xr2:uid="{EEEE2005-B44C-4558-9957-76DB6E9A69D3}"/>
   </bookViews>
@@ -1994,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27715D40-7855-4605-8396-838795ACCD8A}">
   <dimension ref="A1:AM1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N114" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S157"/>
+    <sheetView tabSelected="1" topLeftCell="S119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z135" sqref="Z135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -20032,8 +20032,7 @@
         <v>0</v>
       </c>
       <c r="Z133" s="2" t="b">
-        <f t="shared" si="97"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA133" s="2" t="str">
         <f t="shared" si="98"/>
@@ -20168,8 +20167,7 @@
         <v>0</v>
       </c>
       <c r="Z134" s="2" t="b">
-        <f t="shared" si="97"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA134" s="2" t="str">
         <f t="shared" si="98"/>

--- a/sku-maps/csv/xls/RHEL Data Breakdown.xlsx
+++ b/sku-maps/csv/xls/RHEL Data Breakdown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkelly\github\sku-calc\sku-maps\csv\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5043AAC-471A-4074-90B1-07E976A0457C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4CD4BB1-CF9B-43BE-B2D9-94F85B223FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="930" yWindow="1380" windowWidth="14265" windowHeight="15510" xr2:uid="{EEEE2005-B44C-4558-9957-76DB6E9A69D3}"/>
   </bookViews>
@@ -1994,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27715D40-7855-4605-8396-838795ACCD8A}">
   <dimension ref="A1:AM1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z135" sqref="Z135"/>
+    <sheetView tabSelected="1" topLeftCell="T6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z48" sqref="Z48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -6573,8 +6573,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="2" t="b">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="2" t="str">
         <f t="shared" si="24"/>
@@ -6709,8 +6708,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="2" t="b">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="2" t="str">
         <f t="shared" si="24"/>
@@ -8205,8 +8203,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="2" t="b">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="2" t="str">
         <f t="shared" si="24"/>
@@ -8341,8 +8338,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="2" t="b">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="2" t="str">
         <f t="shared" si="24"/>
